--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Documents\GitHub\murasakisan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C18199-5453-422D-91BF-4145C085DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11550"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">            next_exp_required[_summoner] = 3000;</t>
   </si>
@@ -129,12 +140,56 @@
   </si>
   <si>
     <t xml:space="preserve">            next_exp_required[_summoner] = 190000;</t>
+  </si>
+  <si>
+    <t>day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
@@ -155,12 +210,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,11 +238,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,16 +530,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +547,11 @@
         <f>60*60*24/100*2</f>
         <v>1728</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -496,7 +566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -523,8 +593,11 @@
         <f>J3/12</f>
         <v>1.6075102880658435E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -551,8 +624,12 @@
         <f t="shared" ref="K4:K21" si="4">J4/12</f>
         <v>6.4300411522633738E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4">
+        <f>L3+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -579,8 +656,12 @@
         <f t="shared" si="4"/>
         <v>1.6075102880658436E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5">
+        <f t="shared" ref="L5:L21" si="5">L4+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -607,8 +688,12 @@
         <f t="shared" si="4"/>
         <v>3.2150205761316872E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -635,23 +720,27 @@
         <f t="shared" si="4"/>
         <v>5.6262860082304529E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>21000</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>56000</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="3">
         <f t="shared" si="2"/>
         <v>32.407407407407405</v>
       </c>
@@ -663,8 +752,12 @@
         <f t="shared" si="4"/>
         <v>9.0020576131687235E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -691,8 +784,12 @@
         <f t="shared" si="4"/>
         <v>0.13503086419753088</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L9">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -719,23 +816,27 @@
         <f t="shared" si="4"/>
         <v>0.19290123456790123</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L10">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>45000</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>165000</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="3">
         <f t="shared" si="2"/>
         <v>95.486111111111114</v>
       </c>
@@ -747,23 +848,27 @@
         <f t="shared" si="4"/>
         <v>0.26523919753086422</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L11">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>55000</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>220000</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="3">
         <f t="shared" si="2"/>
         <v>127.31481481481481</v>
       </c>
@@ -775,8 +880,12 @@
         <f t="shared" si="4"/>
         <v>0.35365226337448558</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -803,8 +912,12 @@
         <f t="shared" si="4"/>
         <v>0.45974794238683131</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L13">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -831,8 +944,12 @@
         <f t="shared" si="4"/>
         <v>0.58513374485596714</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L14">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -859,8 +976,12 @@
         <f t="shared" si="4"/>
         <v>0.73141718106995868</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L15">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -887,8 +1008,12 @@
         <f t="shared" si="4"/>
         <v>0.90020576131687247</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L16">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -915,8 +1040,12 @@
         <f t="shared" si="4"/>
         <v>1.0931069958847737</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L17">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -943,8 +1072,12 @@
         <f t="shared" si="4"/>
         <v>1.3117283950617284</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L18">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -971,8 +1104,12 @@
         <f t="shared" si="4"/>
         <v>1.5576774691358024</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L19">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -999,8 +1136,12 @@
         <f t="shared" si="4"/>
         <v>1.8325617283950617</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L20">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1023,62 +1164,66 @@
         <f t="shared" si="3"/>
         <v>25.655864197530867</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <f t="shared" si="4"/>
         <v>2.1379886831275723</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L21">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1101,5 +1246,129 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B27C32-8B6F-4EAC-8185-082864811B34}">
+  <dimension ref="B1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="E2">
+        <v>0.02</v>
+      </c>
+      <c r="F2">
+        <v>0.01</v>
+      </c>
+      <c r="G2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <f>B3*24</f>
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <f>B4*60</f>
+        <v>1440</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <f>B5*60</f>
+        <v>86400</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <f>$B6*E2</f>
+        <v>1728</v>
+      </c>
+      <c r="F6">
+        <f>$B6*F2</f>
+        <v>864</v>
+      </c>
+      <c r="G6">
+        <f>$B6*G2</f>
+        <v>86.4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7">
+        <f>E6*7</f>
+        <v>12096</v>
+      </c>
+      <c r="F7">
+        <f>F6*7</f>
+        <v>6048</v>
+      </c>
+      <c r="G7">
+        <f>G6*7</f>
+        <v>604.80000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <f>E6*30</f>
+        <v>51840</v>
+      </c>
+      <c r="F8">
+        <f>F6*30</f>
+        <v>25920</v>
+      </c>
+      <c r="G8">
+        <f>G6*30</f>
+        <v>2592</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Documents\GitHub\murasakisan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9C18199-5453-422D-91BF-4145C085DA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t xml:space="preserve">            next_exp_required[_summoner] = 3000;</t>
   </si>
@@ -183,13 +183,62 @@
   </si>
   <si>
     <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バランス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x/sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coin</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x/sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status point</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x/Lv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status補正</t>
+    <rPh sb="6" eb="8">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>item補正</t>
+    <rPh sb="4" eb="6">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフレ率</t>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
@@ -530,11 +579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -985,26 +1034,26 @@
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="2">
         <v>105000</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>560000</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="3">
         <f t="shared" si="2"/>
         <v>324.07407407407408</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="3">
         <f t="shared" si="3"/>
         <v>10.80246913580247</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="3">
         <f t="shared" si="4"/>
         <v>0.90020576131687247</v>
       </c>
@@ -1251,11 +1300,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B27C32-8B6F-4EAC-8185-082864811B34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1371,4 +1420,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="str">
+        <f>"+1/x%"</f>
+        <v>+1/x%</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" t="str">
+        <f>"+1/x%"</f>
+        <v>+1/x%</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="str">
+        <f>"+100%/y"</f>
+        <v>+100%/y</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t xml:space="preserve">            next_exp_required[_summoner] = 3000;</t>
   </si>
@@ -194,18 +194,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>x/sec</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>coin</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>x/sec</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>status point</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -214,24 +206,62 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>status補正</t>
-    <rPh sb="6" eb="8">
-      <t>ホセイ</t>
+    <t>+3%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+3%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/Lv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/個</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>item補正</t>
-    <rPh sb="4" eb="6">
-      <t>ホセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インフレ率</t>
-    <rPh sb="4" eb="5">
-      <t>リツ</t>
-    </rPh>
+    <t>item</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/point</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/sec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0.001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12m</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -287,7 +317,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +328,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,27 +616,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="I1">
-        <f>60*60*24/100*2</f>
-        <v>1728</v>
+        <f>60*60*24/100</f>
+        <v>864</v>
       </c>
       <c r="L1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -615,7 +651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -632,21 +668,25 @@
       </c>
       <c r="I3" s="1">
         <f>H3/I$1</f>
-        <v>0.57870370370370372</v>
+        <v>1.1574074074074074</v>
       </c>
       <c r="J3" s="1">
         <f>I3/30</f>
-        <v>1.9290123456790122E-2</v>
+        <v>3.8580246913580245E-2</v>
       </c>
       <c r="K3" s="1">
         <f>J3/12</f>
-        <v>1.6075102880658435E-3</v>
+        <v>3.2150205761316869E-3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="N3" s="1">
+        <f>I3-I2</f>
+        <v>1.1574074074074074</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -663,22 +703,30 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I21" si="2">H4/I$1</f>
-        <v>2.3148148148148149</v>
+        <v>4.6296296296296298</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ref="J4:J21" si="3">I4/30</f>
-        <v>7.716049382716049E-2</v>
+        <v>0.15432098765432098</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K21" si="4">J4/12</f>
-        <v>6.4300411522633738E-3</v>
+        <v>1.2860082304526748E-2</v>
       </c>
       <c r="L4">
         <f>L3+1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="N4" s="1">
+        <f t="shared" ref="N4:N21" si="5">I4-I3</f>
+        <v>3.4722222222222223</v>
+      </c>
+      <c r="O4">
+        <f>N4/N3</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -695,22 +743,30 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" si="2"/>
-        <v>5.7870370370370372</v>
+        <v>11.574074074074074</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>0.19290123456790123</v>
+        <v>0.38580246913580246</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="4"/>
-        <v>1.6075102880658436E-2</v>
+        <v>3.2150205761316872E-2</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L21" si="5">L4+1</f>
+        <f t="shared" ref="L5:L21" si="6">L4+1</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="N5" s="1">
+        <f t="shared" si="5"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O21" si="7">N5/N4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -727,22 +783,30 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>11.574074074074074</v>
+        <v>23.148148148148149</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="3"/>
-        <v>0.38580246913580246</v>
+        <v>0.77160493827160492</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>3.2150205761316872E-2</v>
+        <v>6.4300411522633744E-2</v>
       </c>
       <c r="L6">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="N6" s="1">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+        <v>11.574074074074074</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="7"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -759,22 +823,30 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="2"/>
-        <v>20.25462962962963</v>
+        <v>40.50925925925926</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>0.67515432098765438</v>
+        <v>1.3503086419753088</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="4"/>
-        <v>5.6262860082304529E-2</v>
+        <v>0.11252572016460906</v>
       </c>
       <c r="L7">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="N7" s="1">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+        <v>17.361111111111111</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="7"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -791,22 +863,30 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="2"/>
-        <v>32.407407407407405</v>
+        <v>64.81481481481481</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>1.0802469135802468</v>
+        <v>2.1604938271604937</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>9.0020576131687235E-2</v>
+        <v>0.18004115226337447</v>
       </c>
       <c r="L8">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="N8" s="1">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+        <v>24.30555555555555</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>1.3999999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -823,22 +903,30 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="2"/>
-        <v>48.611111111111114</v>
+        <v>97.222222222222229</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>1.6203703703703705</v>
+        <v>3.2407407407407409</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="4"/>
-        <v>0.13503086419753088</v>
+        <v>0.27006172839506176</v>
       </c>
       <c r="L9">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="N9" s="1">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+        <v>32.407407407407419</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="7"/>
+        <v>1.3333333333333341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -855,22 +943,30 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="2"/>
-        <v>69.444444444444443</v>
+        <v>138.88888888888889</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>2.3148148148148149</v>
+        <v>4.6296296296296298</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>0.19290123456790123</v>
+        <v>0.38580246913580246</v>
       </c>
       <c r="L10">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="N10" s="1">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+        <v>41.666666666666657</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="7"/>
+        <v>1.2857142857142849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -887,22 +983,30 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="2"/>
-        <v>95.486111111111114</v>
+        <v>190.97222222222223</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>3.1828703703703707</v>
+        <v>6.3657407407407414</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>0.26523919753086422</v>
+        <v>0.53047839506172845</v>
       </c>
       <c r="L11">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+        <v>52.083333333333343</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="7"/>
+        <v>1.2500000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -919,22 +1023,30 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="2"/>
-        <v>127.31481481481481</v>
+        <v>254.62962962962962</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>4.2438271604938267</v>
+        <v>8.4876543209876534</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="4"/>
-        <v>0.35365226337448558</v>
+        <v>0.70730452674897115</v>
       </c>
       <c r="L12">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+        <v>63.657407407407391</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="7"/>
+        <v>1.2222222222222217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -951,22 +1063,30 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="2"/>
-        <v>165.50925925925927</v>
+        <v>331.01851851851853</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>5.5169753086419755</v>
+        <v>11.033950617283951</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="4"/>
-        <v>0.45974794238683131</v>
+        <v>0.91949588477366262</v>
       </c>
       <c r="L13">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+        <v>76.388888888888914</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="7"/>
+        <v>1.2000000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -983,22 +1103,30 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>210.64814814814815</v>
+        <v>421.2962962962963</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>7.0216049382716053</v>
+        <v>14.043209876543211</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>0.58513374485596714</v>
+        <v>1.1702674897119343</v>
       </c>
       <c r="L14">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+        <v>90.277777777777771</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="7"/>
+        <v>1.1818181818181814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1015,22 +1143,30 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>263.31018518518516</v>
+        <v>526.62037037037032</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="3"/>
-        <v>8.7770061728395046</v>
+        <v>17.554012345679009</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="4"/>
-        <v>0.73141718106995868</v>
+        <v>1.4628343621399174</v>
       </c>
       <c r="L15">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="N15" s="1">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+        <v>105.32407407407402</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>1.1666666666666661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1047,22 +1183,30 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="2"/>
-        <v>324.07407407407408</v>
+        <v>648.14814814814815</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="3"/>
-        <v>10.80246913580247</v>
+        <v>21.60493827160494</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="4"/>
-        <v>0.90020576131687247</v>
+        <v>1.8004115226337449</v>
       </c>
       <c r="L16">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="N16" s="1">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+        <v>121.52777777777783</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>1.1538461538461549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1079,22 +1223,30 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>393.51851851851853</v>
+        <v>787.03703703703707</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="3"/>
-        <v>13.117283950617285</v>
+        <v>26.23456790123457</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="4"/>
-        <v>1.0931069958847737</v>
+        <v>2.1862139917695473</v>
       </c>
       <c r="L17">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="N17" s="1">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+        <v>138.88888888888891</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>1.1428571428571426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1111,22 +1263,30 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" si="2"/>
-        <v>472.22222222222223</v>
+        <v>944.44444444444446</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="3"/>
-        <v>15.74074074074074</v>
+        <v>31.481481481481481</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="4"/>
-        <v>1.3117283950617284</v>
+        <v>2.6234567901234569</v>
       </c>
       <c r="L18">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="N18" s="1">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+        <v>157.40740740740739</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>1.1333333333333331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1143,22 +1303,30 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>560.76388888888891</v>
+        <v>1121.5277777777778</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="3"/>
-        <v>18.69212962962963</v>
+        <v>37.38425925925926</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="4"/>
-        <v>1.5576774691358024</v>
+        <v>3.1153549382716048</v>
       </c>
       <c r="L19">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="N19" s="1">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+        <v>177.08333333333337</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>1.1250000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1175,22 +1343,30 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>659.72222222222217</v>
+        <v>1319.4444444444443</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="3"/>
-        <v>21.99074074074074</v>
+        <v>43.981481481481481</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="4"/>
-        <v>1.8325617283950617</v>
+        <v>3.6651234567901234</v>
       </c>
       <c r="L20">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="N20" s="1">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+        <v>197.91666666666652</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>1.1176470588235283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1207,72 +1383,80 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" si="2"/>
-        <v>769.67592592592598</v>
+        <v>1539.351851851852</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="3"/>
-        <v>25.655864197530867</v>
+        <v>51.311728395061735</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="4"/>
-        <v>2.1379886831275723</v>
+        <v>4.2759773662551446</v>
       </c>
       <c r="L21">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="N21" s="1">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+        <v>219.90740740740762</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>1.1111111111111129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1424,79 +1608,111 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C9"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C4" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="C9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C7" t="str">
-        <f>"+1/x%"</f>
-        <v>+1/x%</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="D9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C8" t="str">
-        <f>"+1/x%"</f>
-        <v>+1/x%</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" t="str">
-        <f>"+100%/y"</f>
-        <v>+100%/y</v>
+      <c r="E9" s="4"/>
+      <c r="G9">
+        <f>12*3</f>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
   <si>
     <t xml:space="preserve">            next_exp_required[_summoner] = 3000;</t>
   </si>
@@ -262,6 +263,46 @@
   </si>
   <si>
     <t>12m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Lv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sum_exp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>exp/d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requre_day</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>requre_m</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point/Lv</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>gain_point</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>point/%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mod_%</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -317,7 +358,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,6 +375,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -619,7 +666,7 @@
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -629,8 +676,7 @@
         <v>0</v>
       </c>
       <c r="I1">
-        <f>60*60*24/100</f>
-        <v>864</v>
+        <v>1000</v>
       </c>
       <c r="L1" t="s">
         <v>45</v>
@@ -668,22 +714,22 @@
       </c>
       <c r="I3" s="1">
         <f>H3/I$1</f>
-        <v>1.1574074074074074</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <f>I3/30</f>
-        <v>3.8580246913580245E-2</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="K3" s="1">
         <f>J3/12</f>
-        <v>3.2150205761316869E-3</v>
+        <v>2.7777777777777779E-3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="N3" s="1">
         <f>I3-I2</f>
-        <v>1.1574074074074074</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
@@ -703,15 +749,15 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" ref="I4:I21" si="2">H4/I$1</f>
-        <v>4.6296296296296298</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1">
         <f t="shared" ref="J4:J21" si="3">I4/30</f>
-        <v>0.15432098765432098</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" ref="K4:K21" si="4">J4/12</f>
-        <v>1.2860082304526748E-2</v>
+        <v>1.1111111111111112E-2</v>
       </c>
       <c r="L4">
         <f>L3+1</f>
@@ -719,7 +765,7 @@
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N21" si="5">I4-I3</f>
-        <v>3.4722222222222223</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <f>N4/N3</f>
@@ -743,15 +789,15 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" si="2"/>
-        <v>11.574074074074074</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1">
         <f t="shared" si="3"/>
-        <v>0.38580246913580246</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="4"/>
-        <v>3.2150205761316872E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L21" si="6">L4+1</f>
@@ -759,7 +805,7 @@
       </c>
       <c r="N5" s="1">
         <f t="shared" si="5"/>
-        <v>6.9444444444444446</v>
+        <v>6</v>
       </c>
       <c r="O5">
         <f t="shared" ref="O5:O21" si="7">N5/N4</f>
@@ -783,15 +829,15 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="2"/>
-        <v>23.148148148148149</v>
+        <v>20</v>
       </c>
       <c r="J6" s="1">
         <f t="shared" si="3"/>
-        <v>0.77160493827160492</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" si="4"/>
-        <v>6.4300411522633744E-2</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="L6">
         <f t="shared" si="6"/>
@@ -799,7 +845,7 @@
       </c>
       <c r="N6" s="1">
         <f t="shared" si="5"/>
-        <v>11.574074074074074</v>
+        <v>10</v>
       </c>
       <c r="O6">
         <f t="shared" si="7"/>
@@ -823,15 +869,15 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="2"/>
-        <v>40.50925925925926</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1">
         <f t="shared" si="3"/>
-        <v>1.3503086419753088</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" si="4"/>
-        <v>0.11252572016460906</v>
+        <v>9.7222222222222224E-2</v>
       </c>
       <c r="L7">
         <f t="shared" si="6"/>
@@ -839,7 +885,7 @@
       </c>
       <c r="N7" s="1">
         <f t="shared" si="5"/>
-        <v>17.361111111111111</v>
+        <v>15</v>
       </c>
       <c r="O7">
         <f t="shared" si="7"/>
@@ -863,15 +909,15 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="2"/>
-        <v>64.81481481481481</v>
+        <v>56</v>
       </c>
       <c r="J8" s="1">
         <f t="shared" si="3"/>
-        <v>2.1604938271604937</v>
+        <v>1.8666666666666667</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="4"/>
-        <v>0.18004115226337447</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
@@ -879,11 +925,11 @@
       </c>
       <c r="N8" s="1">
         <f t="shared" si="5"/>
-        <v>24.30555555555555</v>
+        <v>21</v>
       </c>
       <c r="O8">
         <f t="shared" si="7"/>
-        <v>1.3999999999999997</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -903,15 +949,15 @@
       </c>
       <c r="I9" s="1">
         <f t="shared" si="2"/>
-        <v>97.222222222222229</v>
+        <v>84</v>
       </c>
       <c r="J9" s="1">
         <f t="shared" si="3"/>
-        <v>3.2407407407407409</v>
+        <v>2.8</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="4"/>
-        <v>0.27006172839506176</v>
+        <v>0.23333333333333331</v>
       </c>
       <c r="L9">
         <f t="shared" si="6"/>
@@ -919,11 +965,11 @@
       </c>
       <c r="N9" s="1">
         <f t="shared" si="5"/>
-        <v>32.407407407407419</v>
+        <v>28</v>
       </c>
       <c r="O9">
         <f t="shared" si="7"/>
-        <v>1.3333333333333341</v>
+        <v>1.3333333333333333</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.4">
@@ -943,15 +989,15 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="2"/>
-        <v>138.88888888888889</v>
+        <v>120</v>
       </c>
       <c r="J10" s="1">
         <f t="shared" si="3"/>
-        <v>4.6296296296296298</v>
+        <v>4</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="4"/>
-        <v>0.38580246913580246</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L10">
         <f t="shared" si="6"/>
@@ -959,11 +1005,11 @@
       </c>
       <c r="N10" s="1">
         <f t="shared" si="5"/>
-        <v>41.666666666666657</v>
+        <v>36</v>
       </c>
       <c r="O10">
         <f t="shared" si="7"/>
-        <v>1.2857142857142849</v>
+        <v>1.2857142857142858</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.4">
@@ -983,15 +1029,15 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="2"/>
-        <v>190.97222222222223</v>
+        <v>165</v>
       </c>
       <c r="J11" s="1">
         <f t="shared" si="3"/>
-        <v>6.3657407407407414</v>
+        <v>5.5</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>0.53047839506172845</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="L11">
         <f t="shared" si="6"/>
@@ -999,11 +1045,11 @@
       </c>
       <c r="N11" s="1">
         <f t="shared" si="5"/>
-        <v>52.083333333333343</v>
+        <v>45</v>
       </c>
       <c r="O11">
         <f t="shared" si="7"/>
-        <v>1.2500000000000004</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.4">
@@ -1023,15 +1069,15 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="2"/>
-        <v>254.62962962962962</v>
+        <v>220</v>
       </c>
       <c r="J12" s="1">
         <f t="shared" si="3"/>
-        <v>8.4876543209876534</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="4"/>
-        <v>0.70730452674897115</v>
+        <v>0.61111111111111105</v>
       </c>
       <c r="L12">
         <f t="shared" si="6"/>
@@ -1039,11 +1085,11 @@
       </c>
       <c r="N12" s="1">
         <f t="shared" si="5"/>
-        <v>63.657407407407391</v>
+        <v>55</v>
       </c>
       <c r="O12">
         <f t="shared" si="7"/>
-        <v>1.2222222222222217</v>
+        <v>1.2222222222222223</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.4">
@@ -1063,15 +1109,15 @@
       </c>
       <c r="I13" s="1">
         <f t="shared" si="2"/>
-        <v>331.01851851851853</v>
+        <v>286</v>
       </c>
       <c r="J13" s="1">
         <f t="shared" si="3"/>
-        <v>11.033950617283951</v>
+        <v>9.5333333333333332</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="4"/>
-        <v>0.91949588477366262</v>
+        <v>0.7944444444444444</v>
       </c>
       <c r="L13">
         <f t="shared" si="6"/>
@@ -1079,11 +1125,11 @@
       </c>
       <c r="N13" s="1">
         <f t="shared" si="5"/>
-        <v>76.388888888888914</v>
+        <v>66</v>
       </c>
       <c r="O13">
         <f t="shared" si="7"/>
-        <v>1.2000000000000006</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
@@ -1103,15 +1149,15 @@
       </c>
       <c r="I14" s="1">
         <f t="shared" si="2"/>
-        <v>421.2962962962963</v>
+        <v>364</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="3"/>
-        <v>14.043209876543211</v>
+        <v>12.133333333333333</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="4"/>
-        <v>1.1702674897119343</v>
+        <v>1.0111111111111111</v>
       </c>
       <c r="L14">
         <f t="shared" si="6"/>
@@ -1119,11 +1165,11 @@
       </c>
       <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>90.277777777777771</v>
+        <v>78</v>
       </c>
       <c r="O14">
         <f t="shared" si="7"/>
-        <v>1.1818181818181814</v>
+        <v>1.1818181818181819</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
@@ -1143,15 +1189,15 @@
       </c>
       <c r="I15" s="1">
         <f t="shared" si="2"/>
-        <v>526.62037037037032</v>
+        <v>455</v>
       </c>
       <c r="J15" s="1">
         <f t="shared" si="3"/>
-        <v>17.554012345679009</v>
+        <v>15.166666666666666</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="4"/>
-        <v>1.4628343621399174</v>
+        <v>1.2638888888888888</v>
       </c>
       <c r="L15">
         <f t="shared" si="6"/>
@@ -1159,11 +1205,11 @@
       </c>
       <c r="N15" s="1">
         <f t="shared" si="5"/>
-        <v>105.32407407407402</v>
+        <v>91</v>
       </c>
       <c r="O15">
         <f t="shared" si="7"/>
-        <v>1.1666666666666661</v>
+        <v>1.1666666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.4">
@@ -1183,15 +1229,15 @@
       </c>
       <c r="I16" s="3">
         <f t="shared" si="2"/>
-        <v>648.14814814814815</v>
+        <v>560</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="3"/>
-        <v>21.60493827160494</v>
+        <v>18.666666666666668</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="4"/>
-        <v>1.8004115226337449</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
@@ -1199,11 +1245,11 @@
       </c>
       <c r="N16" s="1">
         <f t="shared" si="5"/>
-        <v>121.52777777777783</v>
+        <v>105</v>
       </c>
       <c r="O16">
         <f t="shared" si="7"/>
-        <v>1.1538461538461549</v>
+        <v>1.1538461538461537</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.4">
@@ -1223,15 +1269,15 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>787.03703703703707</v>
+        <v>680</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="3"/>
-        <v>26.23456790123457</v>
+        <v>22.666666666666668</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="4"/>
-        <v>2.1862139917695473</v>
+        <v>1.8888888888888891</v>
       </c>
       <c r="L17">
         <f t="shared" si="6"/>
@@ -1239,11 +1285,11 @@
       </c>
       <c r="N17" s="1">
         <f t="shared" si="5"/>
-        <v>138.88888888888891</v>
+        <v>120</v>
       </c>
       <c r="O17">
         <f t="shared" si="7"/>
-        <v>1.1428571428571426</v>
+        <v>1.1428571428571428</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.4">
@@ -1263,15 +1309,15 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" si="2"/>
-        <v>944.44444444444446</v>
+        <v>816</v>
       </c>
       <c r="J18" s="1">
         <f t="shared" si="3"/>
-        <v>31.481481481481481</v>
+        <v>27.2</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="4"/>
-        <v>2.6234567901234569</v>
+        <v>2.2666666666666666</v>
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
@@ -1279,11 +1325,11 @@
       </c>
       <c r="N18" s="1">
         <f t="shared" si="5"/>
-        <v>157.40740740740739</v>
+        <v>136</v>
       </c>
       <c r="O18">
         <f t="shared" si="7"/>
-        <v>1.1333333333333331</v>
+        <v>1.1333333333333333</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.4">
@@ -1303,15 +1349,15 @@
       </c>
       <c r="I19" s="1">
         <f t="shared" si="2"/>
-        <v>1121.5277777777778</v>
+        <v>969</v>
       </c>
       <c r="J19" s="1">
         <f t="shared" si="3"/>
-        <v>37.38425925925926</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="4"/>
-        <v>3.1153549382716048</v>
+        <v>2.6916666666666664</v>
       </c>
       <c r="L19">
         <f t="shared" si="6"/>
@@ -1319,11 +1365,11 @@
       </c>
       <c r="N19" s="1">
         <f t="shared" si="5"/>
-        <v>177.08333333333337</v>
+        <v>153</v>
       </c>
       <c r="O19">
         <f t="shared" si="7"/>
-        <v>1.1250000000000004</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.4">
@@ -1343,15 +1389,15 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" si="2"/>
-        <v>1319.4444444444443</v>
+        <v>1140</v>
       </c>
       <c r="J20" s="1">
         <f t="shared" si="3"/>
-        <v>43.981481481481481</v>
+        <v>38</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="4"/>
-        <v>3.6651234567901234</v>
+        <v>3.1666666666666665</v>
       </c>
       <c r="L20">
         <f t="shared" si="6"/>
@@ -1359,11 +1405,11 @@
       </c>
       <c r="N20" s="1">
         <f t="shared" si="5"/>
-        <v>197.91666666666652</v>
+        <v>171</v>
       </c>
       <c r="O20">
         <f t="shared" si="7"/>
-        <v>1.1176470588235283</v>
+        <v>1.1176470588235294</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.4">
@@ -1383,15 +1429,15 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" si="2"/>
-        <v>1539.351851851852</v>
+        <v>1330</v>
       </c>
       <c r="J21" s="1">
         <f t="shared" si="3"/>
-        <v>51.311728395061735</v>
+        <v>44.333333333333336</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="4"/>
-        <v>4.2759773662551446</v>
+        <v>3.6944444444444446</v>
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
@@ -1399,11 +1445,11 @@
       </c>
       <c r="N21" s="1">
         <f t="shared" si="5"/>
-        <v>219.90740740740762</v>
+        <v>190</v>
       </c>
       <c r="O21">
         <f t="shared" si="7"/>
-        <v>1.1111111111111129</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.4">
@@ -1484,6 +1530,639 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="6.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f>F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <f>E3+1</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="6">
+        <f>G3+F4</f>
+        <v>1000</v>
+      </c>
+      <c r="H4" s="7">
+        <f>G4/$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <f>H4/30</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <f>(E4-1)*$C$3</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="6">
+        <f>J4*$C$4+E4*$C$4</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E22" si="0">E4+1</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G22" si="1">G4+F5</f>
+        <v>4000</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H22" si="2">G5/$C$2</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I22" si="3">H5/30</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" ref="J5:J22" si="4">(E5-1)*$C$3</f>
+        <v>8</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" ref="K5:K22" si="5">J5*$C$4+E5*$C$4</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>15000</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
+        <v>21000</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>56000</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="3"/>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>28000</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>84000</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>36000</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="6">
+        <v>45000</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>165000</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F13" s="6">
+        <v>55000</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>220000</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="3"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="5"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>66000</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>286000</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="3"/>
+        <v>9.5333333333333332</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F15" s="2">
+        <v>78000</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>364000</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>12.133333333333333</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="5"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
+        <v>91000</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>455000</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="3"/>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F17" s="2">
+        <v>105000</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>560000</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="3"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="5"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>120000</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>680000</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>680</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="3"/>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="4"/>
+        <v>60</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="5"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F19" s="6">
+        <v>136000</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
+        <v>816000</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="2"/>
+        <v>816</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="3"/>
+        <v>27.2</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="4"/>
+        <v>64</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="5"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F20" s="6">
+        <v>153000</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>969000</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="2"/>
+        <v>969</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="3"/>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="5"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F21" s="6">
+        <v>171000</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>1140000</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="2"/>
+        <v>1140</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="5"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.4">
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="6">
+        <v>190000</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>1330000</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="2"/>
+        <v>1330</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="3"/>
+        <v>44.333333333333336</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="5"/>
+        <v>192</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G8"/>
   <sheetViews>
@@ -1606,12 +2285,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="インフレ" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t xml:space="preserve">            next_exp_required[_summoner] = 3000;</t>
   </si>
@@ -266,22 +267,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Lv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>sum_exp</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>exp/d</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>requre_day</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -290,19 +279,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>point/Lv</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>gain_point</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>point/%</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mod_%</t>
+    <t>mod_%(ave)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mod_%(max)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>l</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pt/L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ex/d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pt/%</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -663,6 +668,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:L22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="6" customWidth="1"/>
+    <col min="4" max="4" width="4.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="5.625" style="6" customWidth="1"/>
+    <col min="6" max="7" width="9" style="6"/>
+    <col min="8" max="8" width="11.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B3" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <f>F3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4</v>
+      </c>
+      <c r="E4" s="6">
+        <f>E3+1</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="6">
+        <f>G3+F4</f>
+        <v>1000</v>
+      </c>
+      <c r="H4" s="7">
+        <f>G4/$C$2</f>
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <f>H4/30</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J4" s="6">
+        <f>(E4-1)*$C$3</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="6">
+        <f>$C$4*(E4+J4/4)</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="6">
+        <f>$C$4*(E4+J4)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E5" s="6">
+        <f t="shared" ref="E5:E22" si="0">E4+1</f>
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" ref="G5:G22" si="1">G4+F5</f>
+        <v>4000</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" ref="H5:H22" si="2">G5/$C$2</f>
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I22" si="3">H5/30</f>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J5" s="6">
+        <f t="shared" ref="J5:J22" si="4">(E5-1)*$C$3</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="6">
+        <f t="shared" ref="K5:K22" si="5">$C$4*(E5+J5/4)</f>
+        <v>16</v>
+      </c>
+      <c r="L5" s="6">
+        <f t="shared" ref="L5:L22" si="6">$C$4*(E5+J5)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6000</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="3"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>15000</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="3"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="5"/>
+        <v>34</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
+        <v>21000</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>56000</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="3"/>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>28000</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>84000</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="3"/>
+        <v>2.8</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="5"/>
+        <v>46</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>36000</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>120000</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="6">
+        <v>45000</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>165000</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="3"/>
+        <v>5.5</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="F13" s="6">
+        <v>55000</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>220000</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="3"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="6"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>66000</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>286000</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="2"/>
+        <v>286</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="3"/>
+        <v>9.5333333333333332</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="5"/>
+        <v>70</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F15" s="2">
+        <v>78000</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>364000</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>364</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="3"/>
+        <v>12.133333333333333</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="5"/>
+        <v>76</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="6"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
+        <v>91000</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>455000</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>455</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="3"/>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F17" s="2">
+        <v>105000</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>560000</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="3"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="6"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>120000</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>680000</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>680</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="3"/>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="5"/>
+        <v>94</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="6"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F19" s="6">
+        <v>136000</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
+        <v>816000</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="2"/>
+        <v>816</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="3"/>
+        <v>27.2</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="4"/>
+        <v>32</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="6"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F20" s="6">
+        <v>153000</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>969000</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="2"/>
+        <v>969</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="3"/>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="5"/>
+        <v>106</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="6"/>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F21" s="6">
+        <v>171000</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>1140000</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="2"/>
+        <v>1140</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="6"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F22" s="6">
+        <v>190000</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>1330000</v>
+      </c>
+      <c r="H22" s="7">
+        <f t="shared" si="2"/>
+        <v>1330</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="3"/>
+        <v>44.333333333333336</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="5"/>
+        <v>118</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="6"/>
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1529,640 +2258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="4.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="6.75" style="6" customWidth="1"/>
-    <col min="4" max="4" width="4.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="6" customWidth="1"/>
-    <col min="6" max="7" width="9" style="6"/>
-    <col min="8" max="8" width="11.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="6">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6">
-        <v>1</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
-        <f>F3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4" s="6">
-        <f>E3+1</f>
-        <v>2</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="6">
-        <f>G3+F4</f>
-        <v>1000</v>
-      </c>
-      <c r="H4" s="7">
-        <f>G4/$C$2</f>
-        <v>1</v>
-      </c>
-      <c r="I4" s="7">
-        <f>H4/30</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J4" s="6">
-        <f>(E4-1)*$C$3</f>
-        <v>4</v>
-      </c>
-      <c r="K4" s="6">
-        <f>J4*$C$4+E4*$C$4</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E5" s="6">
-        <f t="shared" ref="E5:E22" si="0">E4+1</f>
-        <v>3</v>
-      </c>
-      <c r="F5" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" ref="G5:G22" si="1">G4+F5</f>
-        <v>4000</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" ref="H5:H22" si="2">G5/$C$2</f>
-        <v>4</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" ref="I5:I22" si="3">H5/30</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="J5" s="6">
-        <f t="shared" ref="J5:J22" si="4">(E5-1)*$C$3</f>
-        <v>8</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" ref="K5:K22" si="5">J5*$C$4+E5*$C$4</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E6" s="6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F6" s="6">
-        <v>6000</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J6" s="6">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="K6" s="6">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F7" s="6">
-        <v>10000</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>20000</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J7" s="6">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="K7" s="6">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F8" s="6">
-        <v>15000</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>35000</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="3"/>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F9" s="6">
-        <v>21000</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>56000</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="3"/>
-        <v>1.8666666666666667</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F10" s="6">
-        <v>28000</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="3"/>
-        <v>2.8</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F11" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="I11" s="7">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F12" s="6">
-        <v>45000</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>165000</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="5"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F13" s="6">
-        <v>55000</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>220000</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" si="3"/>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="4"/>
-        <v>40</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="5"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>66000</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
-        <v>286000</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="2"/>
-        <v>286</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="3"/>
-        <v>9.5333333333333332</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="5"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F15" s="2">
-        <v>78000</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>364000</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="2"/>
-        <v>364</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="3"/>
-        <v>12.133333333333333</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="5"/>
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F16" s="2">
-        <v>91000</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>455000</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="2"/>
-        <v>455</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="3"/>
-        <v>15.166666666666666</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="4"/>
-        <v>52</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="5"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.4">
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F17" s="2">
-        <v>105000</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>560000</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="2"/>
-        <v>560</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="3"/>
-        <v>18.666666666666668</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="4"/>
-        <v>56</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="5"/>
-        <v>142</v>
-      </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.4">
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F18" s="2">
-        <v>120000</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>680000</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="2"/>
-        <v>680</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="3"/>
-        <v>22.666666666666668</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="4"/>
-        <v>60</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="5"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.4">
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="F19" s="6">
-        <v>136000</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="1"/>
-        <v>816000</v>
-      </c>
-      <c r="H19" s="7">
-        <f t="shared" si="2"/>
-        <v>816</v>
-      </c>
-      <c r="I19" s="7">
-        <f t="shared" si="3"/>
-        <v>27.2</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="4"/>
-        <v>64</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="5"/>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.4">
-      <c r="E20" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F20" s="6">
-        <v>153000</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="1"/>
-        <v>969000</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="2"/>
-        <v>969</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="3"/>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="5"/>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.4">
-      <c r="E21" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F21" s="6">
-        <v>171000</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="1"/>
-        <v>1140000</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="2"/>
-        <v>1140</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="4"/>
-        <v>72</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="5"/>
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.4">
-      <c r="E22" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F22" s="6">
-        <v>190000</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="1"/>
-        <v>1330000</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="2"/>
-        <v>1330</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="3"/>
-        <v>44.333333333333336</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="4"/>
-        <v>76</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="5"/>
-        <v>192</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G8"/>
   <sheetViews>
@@ -2285,7 +2381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -13,10 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="インフレ" sheetId="4" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
     <t xml:space="preserve">            next_exp_required[_summoner] = 3000;</t>
   </si>
@@ -308,6 +307,14 @@
   </si>
   <si>
     <t>pt/%</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>coin/day(ave)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dc</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -315,8 +322,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -363,7 +371,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -386,6 +394,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -668,27 +679,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:L22"/>
+  <dimension ref="B2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.25" style="6" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="5.5" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="5.625" style="6" customWidth="1"/>
-    <col min="6" max="7" width="9" style="6"/>
+    <col min="5" max="5" width="3.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.25" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.375" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="6"/>
+    <col min="13" max="13" width="13.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
@@ -719,13 +734,19 @@
       <c r="L2" s="6" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="M2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -737,8 +758,11 @@
         <f>F3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="M3" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>75</v>
       </c>
@@ -766,18 +790,22 @@
       </c>
       <c r="J4" s="6">
         <f>(E4-1)*$C$3</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="6">
         <f>$C$4*(E4+J4/4)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L4" s="6">
         <f>$C$4*(E4+J4)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.4">
+        <v>24</v>
+      </c>
+      <c r="M4" s="8">
+        <f>$M$3*(100+K4)/100</f>
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E5" s="6">
         <f t="shared" ref="E5:E22" si="0">E4+1</f>
         <v>3</v>
@@ -799,18 +827,22 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" ref="J5:J22" si="4">(E5-1)*$C$3</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" ref="K5:K22" si="5">$C$4*(E5+J5/4)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ref="L5:L22" si="6">$C$4*(E5+J5)</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" ref="M5:M22" si="7">$M$3*(100+K5)/100</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E6" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -832,18 +864,22 @@
       </c>
       <c r="J6" s="6">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" si="5"/>
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="7"/>
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -865,18 +901,22 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="7"/>
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E8" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -898,18 +938,22 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.4">
+        <v>104</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="7"/>
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -931,18 +975,22 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="5"/>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="7"/>
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E10" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -964,18 +1012,22 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="5"/>
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.4">
+        <v>144</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="7"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -997,18 +1049,22 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.4">
+        <v>164</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="7"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E12" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1030,18 +1086,22 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="5"/>
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="6"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.4">
+        <v>184</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="7"/>
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E13" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1063,18 +1123,22 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="5"/>
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="6"/>
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.4">
+        <v>204</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="7"/>
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E14" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1096,18 +1160,22 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" si="4"/>
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="5"/>
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="6"/>
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.4">
+        <v>224</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="7"/>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1129,18 +1197,22 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="6"/>
-        <v>148</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+        <v>244</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
       <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1162,18 +1234,22 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="4"/>
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="5"/>
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="6"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.4">
+        <v>264</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="7"/>
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1195,18 +1271,22 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="5"/>
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="6"/>
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.4">
+        <v>284</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="7"/>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1228,18 +1308,22 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="4"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="5"/>
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="6"/>
-        <v>184</v>
-      </c>
-    </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.4">
+        <v>304</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="7"/>
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E19" s="6">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1261,18 +1345,22 @@
       </c>
       <c r="J19" s="6">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="6"/>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="5:12" x14ac:dyDescent="0.4">
+        <v>324</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="7"/>
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E20" s="6">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1294,18 +1382,22 @@
       </c>
       <c r="J20" s="6">
         <f t="shared" si="4"/>
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>140</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="6"/>
-        <v>208</v>
-      </c>
-    </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.4">
+        <v>344</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="7"/>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E21" s="6">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1327,18 +1419,22 @@
       </c>
       <c r="J21" s="6">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="5"/>
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="6"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.4">
+        <v>364</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="7"/>
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.4">
       <c r="E22" s="6">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1360,37 +1456,29 @@
       </c>
       <c r="J22" s="6">
         <f t="shared" si="4"/>
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="5"/>
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="6"/>
-        <v>232</v>
+        <v>384</v>
+      </c>
+      <c r="M22" s="8">
+        <f t="shared" si="7"/>
+        <v>2560</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
@@ -2258,7 +2346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G8"/>
   <sheetViews>
@@ -2381,7 +2469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -682,7 +682,7 @@
   <dimension ref="B2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -746,7 +746,7 @@
         <v>73</v>
       </c>
       <c r="C3" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -790,19 +790,19 @@
       </c>
       <c r="J4" s="6">
         <f>(E4-1)*$C$3</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4" s="6">
         <f>$C$4*(E4+J4/4)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L4" s="6">
         <f>$C$4*(E4+J4)</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M4" s="8">
         <f>$M$3*(100+K4)/100</f>
-        <v>1120</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
@@ -827,19 +827,19 @@
       </c>
       <c r="J5" s="6">
         <f t="shared" ref="J5:J22" si="4">(E5-1)*$C$3</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K5" s="6">
         <f t="shared" ref="K5:K22" si="5">$C$4*(E5+J5/4)</f>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" ref="L5:L22" si="6">$C$4*(E5+J5)</f>
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="M5" s="8">
         <f t="shared" ref="M5:M22" si="7">$M$3*(100+K5)/100</f>
-        <v>1200</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
@@ -864,19 +864,19 @@
       </c>
       <c r="J6" s="6">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="L6" s="6">
         <f t="shared" si="6"/>
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="M6" s="8">
         <f t="shared" si="7"/>
-        <v>1280</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.4">
@@ -901,19 +901,19 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="L7" s="6">
         <f t="shared" si="6"/>
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="M7" s="8">
         <f t="shared" si="7"/>
-        <v>1360</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
@@ -938,19 +938,19 @@
       </c>
       <c r="J8" s="6">
         <f t="shared" si="4"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="L8" s="6">
         <f t="shared" si="6"/>
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="M8" s="8">
         <f t="shared" si="7"/>
-        <v>1440</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
@@ -975,19 +975,19 @@
       </c>
       <c r="J9" s="6">
         <f t="shared" si="4"/>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="L9" s="6">
         <f t="shared" si="6"/>
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" si="7"/>
-        <v>1520</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
@@ -1012,19 +1012,19 @@
       </c>
       <c r="J10" s="6">
         <f t="shared" si="4"/>
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="L10" s="6">
         <f t="shared" si="6"/>
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="M10" s="8">
         <f t="shared" si="7"/>
-        <v>1600</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
@@ -1049,19 +1049,19 @@
       </c>
       <c r="J11" s="6">
         <f t="shared" si="4"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="5"/>
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="L11" s="6">
         <f t="shared" si="6"/>
-        <v>164</v>
+        <v>100</v>
       </c>
       <c r="M11" s="8">
         <f t="shared" si="7"/>
-        <v>1680</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.4">
@@ -1086,19 +1086,19 @@
       </c>
       <c r="J12" s="6">
         <f t="shared" si="4"/>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="5"/>
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="L12" s="6">
         <f t="shared" si="6"/>
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="M12" s="8">
         <f t="shared" si="7"/>
-        <v>1760</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.4">
@@ -1123,19 +1123,19 @@
       </c>
       <c r="J13" s="6">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="5"/>
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="L13" s="6">
         <f t="shared" si="6"/>
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="M13" s="8">
         <f t="shared" si="7"/>
-        <v>1840</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
@@ -1160,19 +1160,19 @@
       </c>
       <c r="J14" s="6">
         <f t="shared" si="4"/>
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="5"/>
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="L14" s="6">
         <f t="shared" si="6"/>
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="M14" s="8">
         <f t="shared" si="7"/>
-        <v>1920</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.4">
@@ -1197,19 +1197,19 @@
       </c>
       <c r="J15" s="2">
         <f t="shared" si="4"/>
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="K15" s="2">
         <f t="shared" si="5"/>
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="6"/>
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="M15" s="8">
         <f t="shared" si="7"/>
-        <v>2000</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.4">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" si="4"/>
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" si="6"/>
-        <v>264</v>
+        <v>160</v>
       </c>
       <c r="M16" s="8">
         <f t="shared" si="7"/>
-        <v>2080</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.4">
@@ -1271,19 +1271,19 @@
       </c>
       <c r="J17" s="2">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="K17" s="2">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="L17" s="2">
         <f t="shared" si="6"/>
-        <v>284</v>
+        <v>172</v>
       </c>
       <c r="M17" s="8">
         <f t="shared" si="7"/>
-        <v>2160</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.4">
@@ -1308,19 +1308,19 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" si="4"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="L18" s="2">
         <f t="shared" si="6"/>
-        <v>304</v>
+        <v>184</v>
       </c>
       <c r="M18" s="8">
         <f t="shared" si="7"/>
-        <v>2240</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.4">
@@ -1345,19 +1345,19 @@
       </c>
       <c r="J19" s="6">
         <f t="shared" si="4"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="5"/>
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="L19" s="6">
         <f t="shared" si="6"/>
-        <v>324</v>
+        <v>196</v>
       </c>
       <c r="M19" s="8">
         <f t="shared" si="7"/>
-        <v>2320</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.4">
@@ -1382,19 +1382,19 @@
       </c>
       <c r="J20" s="6">
         <f t="shared" si="4"/>
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="5"/>
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="L20" s="6">
         <f t="shared" si="6"/>
-        <v>344</v>
+        <v>208</v>
       </c>
       <c r="M20" s="8">
         <f t="shared" si="7"/>
-        <v>2400</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.4">
@@ -1419,19 +1419,19 @@
       </c>
       <c r="J21" s="6">
         <f t="shared" si="4"/>
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="5"/>
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="L21" s="6">
         <f t="shared" si="6"/>
-        <v>364</v>
+        <v>220</v>
       </c>
       <c r="M21" s="8">
         <f t="shared" si="7"/>
-        <v>2480</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.4">
@@ -1456,19 +1456,19 @@
       </c>
       <c r="J22" s="6">
         <f t="shared" si="4"/>
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="5"/>
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="L22" s="6">
         <f t="shared" si="6"/>
-        <v>384</v>
+        <v>232</v>
       </c>
       <c r="M22" s="8">
         <f t="shared" si="7"/>
-        <v>2560</v>
+        <v>2180</v>
       </c>
     </row>
   </sheetData>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Documents\GitHub\murasakisan\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECA0C97-006A-489C-A812-09B2772273F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="インフレ" sheetId="4" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,6 +30,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
   <si>
     <t xml:space="preserve">            next_exp_required[_summoner] = 3000;</t>
   </si>
@@ -313,18 +315,15 @@
     <t>coin/day(ave)</t>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>dc</t>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -371,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,11 +398,29 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -678,11 +695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14:AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -700,10 +717,19 @@
     <col min="11" max="11" width="12.375" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="6"/>
+    <col min="14" max="16" width="7.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="7.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="21" max="29" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="N1" s="9">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
@@ -737,16 +763,76 @@
       <c r="M2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9">
+        <f>N2+1</f>
+        <v>2</v>
+      </c>
+      <c r="P2" s="9">
+        <f t="shared" ref="P2:AC2" si="0">O2+1</f>
+        <v>3</v>
+      </c>
+      <c r="Q2" s="9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="R2" s="9">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S2" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="T2" s="9">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="U2" s="9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="V2" s="9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="W2" s="9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="X2" s="9">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Y2" s="9">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Z2" s="9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="AA2" s="9">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="AB2" s="9">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="AC2" s="9">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -761,8 +847,56 @@
       <c r="M3" s="8">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="N3" s="9">
+        <v>3000</v>
+      </c>
+      <c r="O3" s="9">
+        <v>6000</v>
+      </c>
+      <c r="P3" s="9">
+        <v>10000</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>15000</v>
+      </c>
+      <c r="R3" s="9">
+        <v>21000</v>
+      </c>
+      <c r="S3" s="9">
+        <v>28000</v>
+      </c>
+      <c r="T3" s="9">
+        <v>36000</v>
+      </c>
+      <c r="U3" s="9">
+        <v>45000</v>
+      </c>
+      <c r="V3" s="9">
+        <v>55000</v>
+      </c>
+      <c r="W3" s="9">
+        <v>66000</v>
+      </c>
+      <c r="X3" s="9">
+        <v>78000</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>91000</v>
+      </c>
+      <c r="Z3" s="9">
+        <v>105000</v>
+      </c>
+      <c r="AA3" s="9">
+        <v>120000</v>
+      </c>
+      <c r="AB3" s="9">
+        <v>136000</v>
+      </c>
+      <c r="AC3" s="9">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:29" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>75</v>
       </c>
@@ -790,696 +924,1917 @@
       </c>
       <c r="J4" s="6">
         <f>(E4-1)*$C$3</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="6">
         <f>$C$4*(E4+J4/4)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L4" s="6">
         <f>$C$4*(E4+J4)</f>
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M4" s="8">
         <f>$M$3*(100+K4)/100</f>
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+        <v>1120</v>
+      </c>
+      <c r="N4" s="9">
+        <f>MAX(N$3-(N$3-3000)/(8*N$2)*$K4,3000)</f>
+        <v>3000</v>
+      </c>
+      <c r="O4" s="9">
+        <f t="shared" ref="O4:AC19" si="1">MAX(O$3-(O$3-3000)/(8*O$2)*$K4,3000)</f>
+        <v>3750</v>
+      </c>
+      <c r="P4" s="9">
+        <f t="shared" si="1"/>
+        <v>6500</v>
+      </c>
+      <c r="Q4" s="9">
+        <f t="shared" si="1"/>
+        <v>10500</v>
+      </c>
+      <c r="R4" s="9">
+        <f t="shared" si="1"/>
+        <v>15600</v>
+      </c>
+      <c r="S4" s="9">
+        <f t="shared" si="1"/>
+        <v>21750</v>
+      </c>
+      <c r="T4" s="9">
+        <f t="shared" si="1"/>
+        <v>28928.571428571428</v>
+      </c>
+      <c r="U4" s="9">
+        <f t="shared" si="1"/>
+        <v>37125</v>
+      </c>
+      <c r="V4" s="9">
+        <f t="shared" si="1"/>
+        <v>46333.333333333336</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="1"/>
+        <v>56550</v>
+      </c>
+      <c r="X4" s="9">
+        <f t="shared" si="1"/>
+        <v>67772.727272727265</v>
+      </c>
+      <c r="Y4" s="9">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+      <c r="Z4" s="9">
+        <f t="shared" si="1"/>
+        <v>93230.769230769234</v>
+      </c>
+      <c r="AA4" s="9">
+        <f t="shared" si="1"/>
+        <v>107464.28571428571</v>
+      </c>
+      <c r="AB4" s="9">
+        <f t="shared" si="1"/>
+        <v>122700</v>
+      </c>
+      <c r="AC4" s="9">
+        <f t="shared" si="1"/>
+        <v>138937.5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E22" si="0">E4+1</f>
+        <f t="shared" ref="E5:E22" si="2">E4+1</f>
         <v>3</v>
       </c>
       <c r="F5" s="6">
         <v>3000</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G22" si="1">G4+F5</f>
+        <f t="shared" ref="G5:G22" si="3">G4+F5</f>
         <v>4000</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" ref="H5:H22" si="2">G5/$C$2</f>
+        <f t="shared" ref="H5:H22" si="4">G5/$C$2</f>
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" ref="I5:I22" si="3">H5/30</f>
+        <f t="shared" ref="I5:I22" si="5">H5/30</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" ref="J5:J22" si="4">(E5-1)*$C$3</f>
-        <v>4</v>
+        <f t="shared" ref="J5:J22" si="6">(E5-1)*$C$3</f>
+        <v>8</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" ref="K5:K22" si="5">$C$4*(E5+J5/4)</f>
-        <v>16</v>
+        <f t="shared" ref="K5:K22" si="7">$C$4*(E5+J5/4)</f>
+        <v>20</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" ref="L5:L22" si="6">$C$4*(E5+J5)</f>
-        <v>28</v>
+        <f t="shared" ref="L5:L22" si="8">$C$4*(E5+J5)</f>
+        <v>44</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" ref="M5:M22" si="7">$M$3*(100+K5)/100</f>
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+        <f t="shared" ref="M5:M22" si="9">$M$3*(100+K5)/100</f>
+        <v>1200</v>
+      </c>
+      <c r="N5" s="9">
+        <f t="shared" ref="N5:AC20" si="10">MAX(N$3-(N$3-3000)/(8*N$2)*$K5,3000)</f>
+        <v>3000</v>
+      </c>
+      <c r="O5" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P5" s="9">
+        <f t="shared" si="1"/>
+        <v>4166.6666666666661</v>
+      </c>
+      <c r="Q5" s="9">
+        <f t="shared" si="1"/>
+        <v>7500</v>
+      </c>
+      <c r="R5" s="9">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="S5" s="9">
+        <f t="shared" si="1"/>
+        <v>17583.333333333332</v>
+      </c>
+      <c r="T5" s="9">
+        <f t="shared" si="1"/>
+        <v>24214.285714285714</v>
+      </c>
+      <c r="U5" s="9">
+        <f t="shared" si="1"/>
+        <v>31875</v>
+      </c>
+      <c r="V5" s="9">
+        <f t="shared" si="1"/>
+        <v>40555.555555555555</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="1"/>
+        <v>50250</v>
+      </c>
+      <c r="X5" s="9">
+        <f t="shared" si="1"/>
+        <v>60954.545454545456</v>
+      </c>
+      <c r="Y5" s="9">
+        <f t="shared" si="1"/>
+        <v>72666.666666666672</v>
+      </c>
+      <c r="Z5" s="9">
+        <f t="shared" si="1"/>
+        <v>85384.61538461539</v>
+      </c>
+      <c r="AA5" s="9">
+        <f t="shared" si="1"/>
+        <v>99107.142857142855</v>
+      </c>
+      <c r="AB5" s="9">
+        <f t="shared" si="1"/>
+        <v>113833.33333333334</v>
+      </c>
+      <c r="AC5" s="9">
+        <f t="shared" si="1"/>
+        <v>129562.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F6" s="6">
         <v>6000</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="H6" s="7">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J6" s="6">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="K6" s="6">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="L6" s="6">
+        <f t="shared" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="9"/>
+        <v>1280</v>
+      </c>
+      <c r="N6" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P6" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q6" s="9">
+        <f t="shared" si="1"/>
+        <v>4500</v>
+      </c>
+      <c r="R6" s="9">
+        <f t="shared" si="1"/>
+        <v>8400</v>
+      </c>
+      <c r="S6" s="9">
+        <f t="shared" si="1"/>
+        <v>13416.666666666666</v>
+      </c>
+      <c r="T6" s="9">
+        <f t="shared" si="1"/>
+        <v>19500</v>
+      </c>
+      <c r="U6" s="9">
+        <f t="shared" si="1"/>
+        <v>26625</v>
+      </c>
+      <c r="V6" s="9">
+        <f t="shared" si="1"/>
+        <v>34777.777777777781</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="1"/>
+        <v>43950</v>
+      </c>
+      <c r="X6" s="9">
+        <f t="shared" si="1"/>
+        <v>54136.363636363632</v>
+      </c>
+      <c r="Y6" s="9">
+        <f t="shared" si="1"/>
+        <v>65333.333333333336</v>
+      </c>
+      <c r="Z6" s="9">
+        <f t="shared" si="1"/>
+        <v>77538.461538461532</v>
+      </c>
+      <c r="AA6" s="9">
+        <f t="shared" si="1"/>
+        <v>90750</v>
+      </c>
+      <c r="AB6" s="9">
+        <f t="shared" si="1"/>
+        <v>104966.66666666667</v>
+      </c>
+      <c r="AC6" s="9">
+        <f t="shared" si="1"/>
+        <v>120187.5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E7" s="6">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="5"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J7" s="6">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="K7" s="6">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="L7" s="6">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="M7" s="8">
+        <f t="shared" si="9"/>
+        <v>1360</v>
+      </c>
+      <c r="N7" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O7" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P7" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q7" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R7" s="9">
+        <f t="shared" si="1"/>
+        <v>4800</v>
+      </c>
+      <c r="S7" s="9">
+        <f t="shared" si="1"/>
+        <v>9250</v>
+      </c>
+      <c r="T7" s="9">
+        <f t="shared" si="1"/>
+        <v>14785.714285714283</v>
+      </c>
+      <c r="U7" s="9">
+        <f t="shared" si="1"/>
+        <v>21375</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="1"/>
+        <v>29000</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="1"/>
+        <v>37650</v>
+      </c>
+      <c r="X7" s="9">
+        <f t="shared" si="1"/>
+        <v>47318.181818181823</v>
+      </c>
+      <c r="Y7" s="9">
+        <f t="shared" si="1"/>
+        <v>58000</v>
+      </c>
+      <c r="Z7" s="9">
+        <f t="shared" si="1"/>
+        <v>69692.307692307688</v>
+      </c>
+      <c r="AA7" s="9">
+        <f t="shared" si="1"/>
+        <v>82392.857142857145</v>
+      </c>
+      <c r="AB7" s="9">
+        <f t="shared" si="1"/>
+        <v>96100</v>
+      </c>
+      <c r="AC7" s="9">
+        <f t="shared" si="1"/>
+        <v>110812.5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E8" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="6">
+        <v>15000</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="3"/>
+        <v>35000</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="5"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="J8" s="6">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K8" s="6">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="L8" s="6">
+        <f t="shared" si="8"/>
+        <v>104</v>
+      </c>
+      <c r="M8" s="8">
+        <f t="shared" si="9"/>
+        <v>1440</v>
+      </c>
+      <c r="N8" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O8" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="S8" s="9">
+        <f t="shared" si="1"/>
+        <v>5083.3333333333321</v>
+      </c>
+      <c r="T8" s="9">
+        <f t="shared" si="1"/>
+        <v>10071.428571428569</v>
+      </c>
+      <c r="U8" s="9">
+        <f t="shared" si="1"/>
+        <v>16125</v>
+      </c>
+      <c r="V8" s="9">
+        <f t="shared" si="1"/>
+        <v>23222.222222222226</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="1"/>
+        <v>31350</v>
+      </c>
+      <c r="X8" s="9">
+        <f t="shared" si="1"/>
+        <v>40500</v>
+      </c>
+      <c r="Y8" s="9">
+        <f t="shared" si="1"/>
+        <v>50666.666666666672</v>
+      </c>
+      <c r="Z8" s="9">
+        <f t="shared" si="1"/>
+        <v>61846.153846153851</v>
+      </c>
+      <c r="AA8" s="9">
+        <f t="shared" si="1"/>
+        <v>74035.71428571429</v>
+      </c>
+      <c r="AB8" s="9">
+        <f t="shared" si="1"/>
+        <v>87233.333333333343</v>
+      </c>
+      <c r="AC8" s="9">
+        <f t="shared" si="1"/>
+        <v>101437.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E9" s="6">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="6">
+        <v>21000</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="3"/>
+        <v>56000</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="5"/>
+        <v>1.8666666666666667</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="L9" s="6">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
+      <c r="M9" s="8">
+        <f t="shared" si="9"/>
+        <v>1520</v>
+      </c>
+      <c r="N9" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O9" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P9" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q9" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R9" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="S9" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="T9" s="9">
+        <f t="shared" si="1"/>
+        <v>5357.1428571428551</v>
+      </c>
+      <c r="U9" s="9">
+        <f t="shared" si="1"/>
+        <v>10875</v>
+      </c>
+      <c r="V9" s="9">
+        <f t="shared" si="1"/>
+        <v>17444.444444444445</v>
+      </c>
+      <c r="W9" s="9">
+        <f t="shared" si="1"/>
+        <v>25050</v>
+      </c>
+      <c r="X9" s="9">
+        <f t="shared" si="1"/>
+        <v>33681.818181818184</v>
+      </c>
+      <c r="Y9" s="9">
+        <f t="shared" si="1"/>
+        <v>43333.333333333336</v>
+      </c>
+      <c r="Z9" s="9">
+        <f t="shared" si="1"/>
+        <v>54000</v>
+      </c>
+      <c r="AA9" s="9">
+        <f t="shared" si="1"/>
+        <v>65678.57142857142</v>
+      </c>
+      <c r="AB9" s="9">
+        <f t="shared" si="1"/>
+        <v>78366.666666666672</v>
+      </c>
+      <c r="AC9" s="9">
+        <f t="shared" si="1"/>
+        <v>92062.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E10" s="6">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>28000</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="3"/>
+        <v>84000</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="5"/>
+        <v>2.8</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="8"/>
+        <v>144</v>
+      </c>
+      <c r="M10" s="8">
+        <f t="shared" si="9"/>
+        <v>1600</v>
+      </c>
+      <c r="N10" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P10" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="1"/>
+        <v>5625</v>
+      </c>
+      <c r="V10" s="9">
+        <f t="shared" si="1"/>
+        <v>11666.666666666672</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" si="1"/>
+        <v>18750</v>
+      </c>
+      <c r="X10" s="9">
+        <f t="shared" si="1"/>
+        <v>26863.636363636368</v>
+      </c>
+      <c r="Y10" s="9">
+        <f t="shared" si="1"/>
+        <v>36000</v>
+      </c>
+      <c r="Z10" s="9">
+        <f t="shared" si="1"/>
+        <v>46153.846153846156</v>
+      </c>
+      <c r="AA10" s="9">
+        <f t="shared" si="1"/>
+        <v>57321.428571428572</v>
+      </c>
+      <c r="AB10" s="9">
+        <f t="shared" si="1"/>
+        <v>69500</v>
+      </c>
+      <c r="AC10" s="9">
+        <f t="shared" si="1"/>
+        <v>82687.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="F11" s="6">
+        <v>36000</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="3"/>
+        <v>120000</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="4"/>
+        <v>120</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="8"/>
+        <v>164</v>
+      </c>
+      <c r="M11" s="8">
+        <f t="shared" si="9"/>
+        <v>1680</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P11" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q11" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R11" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="S11" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="T11" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="U11" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="V11" s="9">
+        <f t="shared" si="1"/>
+        <v>5888.8888888888905</v>
+      </c>
+      <c r="W11" s="9">
+        <f t="shared" si="1"/>
+        <v>12450</v>
+      </c>
+      <c r="X11" s="9">
+        <f t="shared" si="1"/>
+        <v>20045.454545454544</v>
+      </c>
+      <c r="Y11" s="9">
+        <f t="shared" si="1"/>
+        <v>28666.666666666672</v>
+      </c>
+      <c r="Z11" s="9">
+        <f t="shared" si="1"/>
+        <v>38307.692307692312</v>
+      </c>
+      <c r="AA11" s="9">
+        <f t="shared" si="1"/>
+        <v>48964.28571428571</v>
+      </c>
+      <c r="AB11" s="9">
+        <f t="shared" si="1"/>
+        <v>60633.333333333343</v>
+      </c>
+      <c r="AC11" s="9">
+        <f t="shared" si="1"/>
+        <v>73312.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E12" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="I6" s="7">
+      <c r="F12" s="6">
+        <v>45000</v>
+      </c>
+      <c r="G12" s="6">
         <f t="shared" si="3"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="J6" s="6">
+        <v>165000</v>
+      </c>
+      <c r="H12" s="7">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="K6" s="6">
+        <v>165</v>
+      </c>
+      <c r="I12" s="7">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="L6" s="6">
+        <v>5.5</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="8"/>
+        <v>184</v>
+      </c>
+      <c r="M12" s="8">
+        <f t="shared" si="9"/>
+        <v>1760</v>
+      </c>
+      <c r="N12" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O12" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P12" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q12" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R12" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="S12" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="V12" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="W12" s="9">
+        <f t="shared" si="1"/>
+        <v>6150</v>
+      </c>
+      <c r="X12" s="9">
+        <f t="shared" si="1"/>
+        <v>13227.272727272728</v>
+      </c>
+      <c r="Y12" s="9">
+        <f t="shared" si="1"/>
+        <v>21333.333333333343</v>
+      </c>
+      <c r="Z12" s="9">
+        <f t="shared" si="1"/>
+        <v>30461.538461538468</v>
+      </c>
+      <c r="AA12" s="9">
+        <f t="shared" si="1"/>
+        <v>40607.142857142855</v>
+      </c>
+      <c r="AB12" s="9">
+        <f t="shared" si="1"/>
+        <v>51766.666666666672</v>
+      </c>
+      <c r="AC12" s="9">
+        <f t="shared" si="1"/>
+        <v>63937.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E13" s="6">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F13" s="6">
+        <v>55000</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="3"/>
+        <v>220000</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="4"/>
+        <v>220</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="5"/>
+        <v>7.333333333333333</v>
+      </c>
+      <c r="J13" s="6">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="M6" s="8">
+      <c r="K13" s="6">
         <f t="shared" si="7"/>
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E7" s="6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F7" s="6">
-        <v>10000</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>20000</v>
-      </c>
-      <c r="H7" s="7">
+        <v>84</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="8"/>
+        <v>204</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="9"/>
+        <v>1840</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P13" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q13" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R13" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="S13" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="V13" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="W13" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X13" s="9">
+        <f t="shared" si="1"/>
+        <v>6409.0909090909117</v>
+      </c>
+      <c r="Y13" s="9">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="Z13" s="9">
+        <f t="shared" si="1"/>
+        <v>22615.384615384624</v>
+      </c>
+      <c r="AA13" s="9">
+        <f t="shared" si="1"/>
+        <v>32250</v>
+      </c>
+      <c r="AB13" s="9">
+        <f t="shared" si="1"/>
+        <v>42900</v>
+      </c>
+      <c r="AC13" s="9">
+        <f t="shared" si="1"/>
+        <v>54562.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E14" s="6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F14" s="6">
+        <v>66000</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="3"/>
+        <v>286000</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="4"/>
+        <v>286</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="5"/>
+        <v>9.5333333333333332</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="8"/>
+        <v>224</v>
+      </c>
+      <c r="M14" s="8">
+        <f t="shared" si="9"/>
+        <v>1920</v>
+      </c>
+      <c r="N14" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P14" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q14" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R14" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="S14" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="V14" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="W14" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X14" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Y14" s="9">
+        <f t="shared" si="1"/>
+        <v>6666.6666666666715</v>
+      </c>
+      <c r="Z14" s="9">
+        <f t="shared" si="1"/>
+        <v>14769.23076923078</v>
+      </c>
+      <c r="AA14" s="9">
+        <f t="shared" si="1"/>
+        <v>23892.857142857145</v>
+      </c>
+      <c r="AB14" s="9">
+        <f t="shared" si="1"/>
+        <v>34033.333333333343</v>
+      </c>
+      <c r="AC14" s="9">
+        <f t="shared" si="1"/>
+        <v>45187.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E15" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="F15" s="2">
+        <v>78000</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="3"/>
+        <v>364000</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="4"/>
+        <v>364</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="5"/>
+        <v>12.133333333333333</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="8"/>
+        <v>244</v>
+      </c>
+      <c r="M15" s="8">
+        <f t="shared" si="9"/>
+        <v>2000</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O15" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P15" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q15" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R15" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="S15" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="V15" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="W15" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X15" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Y15" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Z15" s="9">
+        <f t="shared" si="1"/>
+        <v>6923.076923076922</v>
+      </c>
+      <c r="AA15" s="9">
+        <f t="shared" si="1"/>
+        <v>15535.71428571429</v>
+      </c>
+      <c r="AB15" s="9">
+        <f t="shared" si="1"/>
+        <v>25166.666666666672</v>
+      </c>
+      <c r="AC15" s="9">
+        <f t="shared" si="1"/>
+        <v>35812.5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="E16" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="F16" s="2">
+        <v>91000</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="3"/>
+        <v>455000</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="4"/>
+        <v>455</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="5"/>
+        <v>15.166666666666666</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="7"/>
+        <v>108</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="8"/>
+        <v>264</v>
+      </c>
+      <c r="M16" s="8">
+        <f t="shared" si="9"/>
+        <v>2080</v>
+      </c>
+      <c r="N16" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O16" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P16" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q16" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R16" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="S16" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="V16" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="W16" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X16" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Y16" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Z16" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="AA16" s="9">
+        <f t="shared" si="1"/>
+        <v>7178.5714285714348</v>
+      </c>
+      <c r="AB16" s="9">
+        <f t="shared" si="1"/>
+        <v>16300.000000000015</v>
+      </c>
+      <c r="AC16" s="9">
+        <f t="shared" si="1"/>
+        <v>26437.5</v>
+      </c>
+    </row>
+    <row r="17" spans="5:29" x14ac:dyDescent="0.4">
+      <c r="E17" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="F17" s="2">
+        <v>105000</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="3"/>
+        <v>560000</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="4"/>
+        <v>560</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="5"/>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="7"/>
+        <v>116</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="8"/>
+        <v>284</v>
+      </c>
+      <c r="M17" s="8">
+        <f t="shared" si="9"/>
+        <v>2160</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="S17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="T17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="V17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="W17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Y17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Z17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="AA17" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="AB17" s="9">
+        <f t="shared" si="1"/>
+        <v>7433.333333333343</v>
+      </c>
+      <c r="AC17" s="9">
+        <f t="shared" si="1"/>
+        <v>17062.5</v>
+      </c>
+    </row>
+    <row r="18" spans="5:29" x14ac:dyDescent="0.4">
+      <c r="E18" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F18" s="2">
+        <v>120000</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="3"/>
+        <v>680000</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="4"/>
+        <v>680</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="5"/>
+        <v>22.666666666666668</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="7"/>
+        <v>124</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="8"/>
+        <v>304</v>
+      </c>
+      <c r="M18" s="8">
+        <f t="shared" si="9"/>
+        <v>2240</v>
+      </c>
+      <c r="N18" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="S18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="T18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="V18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="W18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Y18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Z18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="AA18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="AB18" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="AC18" s="9">
+        <f t="shared" si="1"/>
+        <v>7687.5</v>
+      </c>
+    </row>
+    <row r="19" spans="5:29" x14ac:dyDescent="0.4">
+      <c r="E19" s="6">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="F19" s="6">
+        <v>136000</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="3"/>
+        <v>816000</v>
+      </c>
+      <c r="H19" s="7">
+        <f t="shared" si="4"/>
+        <v>816</v>
+      </c>
+      <c r="I19" s="7">
+        <f t="shared" si="5"/>
+        <v>27.2</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="7"/>
+        <v>132</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="8"/>
+        <v>324</v>
+      </c>
+      <c r="M19" s="8">
+        <f t="shared" si="9"/>
+        <v>2320</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Q19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="R19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="S19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="T19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="V19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="W19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="X19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Y19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="Z19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="AA19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="AB19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="AC19" s="9">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="5:29" x14ac:dyDescent="0.4">
+      <c r="E20" s="6">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="F20" s="6">
+        <v>153000</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="3"/>
+        <v>969000</v>
+      </c>
+      <c r="H20" s="7">
+        <f t="shared" si="4"/>
+        <v>969</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="5"/>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="7"/>
+        <v>140</v>
+      </c>
+      <c r="L20" s="6">
+        <f t="shared" si="8"/>
+        <v>344</v>
+      </c>
+      <c r="M20" s="8">
+        <f t="shared" si="9"/>
+        <v>2400</v>
+      </c>
+      <c r="N20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="O20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="Q20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="R20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="S20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="T20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="U20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="V20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="W20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="X20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="Y20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="Z20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="AA20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="AB20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="AC20" s="9">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="5:29" x14ac:dyDescent="0.4">
+      <c r="E21" s="6">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="F21" s="6">
+        <v>171000</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="3"/>
+        <v>1140000</v>
+      </c>
+      <c r="H21" s="7">
+        <f t="shared" si="4"/>
+        <v>1140</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="5"/>
+        <v>38</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="8"/>
+        <v>364</v>
+      </c>
+      <c r="M21" s="8">
+        <f t="shared" si="9"/>
+        <v>2480</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" ref="N21:AC22" si="11">MAX(N$3-(N$3-3000)/(8*N$2)*$K21,3000)</f>
+        <v>3000</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="R21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="S21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="U21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="V21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="W21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="X21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="Y21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="Z21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="AA21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="AB21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="AC21" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="5:29" x14ac:dyDescent="0.4">
+      <c r="E22" s="6">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="I7" s="7">
+      <c r="F22" s="6">
+        <v>190000</v>
+      </c>
+      <c r="G22" s="6">
         <f t="shared" si="3"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J7" s="6">
+        <v>1330000</v>
+      </c>
+      <c r="H22" s="7">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="K7" s="6">
+        <v>1330</v>
+      </c>
+      <c r="I22" s="7">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-      <c r="M7" s="8">
-        <f t="shared" si="7"/>
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E8" s="6">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="F8" s="6">
-        <v>15000</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>35000</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="3"/>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="K8" s="6">
-        <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="M8" s="8">
-        <f t="shared" si="7"/>
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E9" s="6">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="F9" s="6">
-        <v>21000</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>56000</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="3"/>
-        <v>1.8666666666666667</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="K9" s="6">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="L9" s="6">
+        <v>44.333333333333336</v>
+      </c>
+      <c r="J22" s="6">
         <f t="shared" si="6"/>
         <v>76</v>
       </c>
-      <c r="M9" s="8">
+      <c r="K22" s="6">
         <f t="shared" si="7"/>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E10" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="F10" s="6">
-        <v>28000</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>84000</v>
-      </c>
-      <c r="H10" s="7">
-        <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="3"/>
-        <v>2.8</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="6"/>
-        <v>88</v>
-      </c>
-      <c r="M10" s="8">
-        <f t="shared" si="7"/>
-        <v>1460</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E11" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="F11" s="6">
-        <v>36000</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>120000</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="2"/>
-        <v>120</v>
-      </c>
-      <c r="I11" s="7">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="6"/>
-        <v>100</v>
-      </c>
-      <c r="M11" s="8">
-        <f t="shared" si="7"/>
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E12" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="F12" s="6">
-        <v>45000</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>165000</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" si="3"/>
-        <v>5.5</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="6"/>
-        <v>112</v>
-      </c>
-      <c r="M12" s="8">
-        <f t="shared" si="7"/>
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E13" s="6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="F13" s="6">
-        <v>55000</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>220000</v>
-      </c>
-      <c r="H13" s="7">
-        <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" si="3"/>
-        <v>7.333333333333333</v>
-      </c>
-      <c r="J13" s="6">
-        <f t="shared" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="K13" s="6">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="L13" s="6">
-        <f t="shared" si="6"/>
-        <v>124</v>
-      </c>
-      <c r="M13" s="8">
-        <f t="shared" si="7"/>
-        <v>1640</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E14" s="6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="F14" s="6">
-        <v>66000</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
-        <v>286000</v>
-      </c>
-      <c r="H14" s="7">
-        <f t="shared" si="2"/>
-        <v>286</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="3"/>
-        <v>9.5333333333333332</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="6"/>
-        <v>136</v>
-      </c>
-      <c r="M14" s="8">
-        <f t="shared" si="7"/>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E15" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="F15" s="2">
-        <v>78000</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="1"/>
-        <v>364000</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="2"/>
-        <v>364</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="3"/>
-        <v>12.133333333333333</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="K15" s="2">
-        <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="6"/>
-        <v>148</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" si="7"/>
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="E16" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="F16" s="2">
-        <v>91000</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>455000</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="2"/>
-        <v>455</v>
-      </c>
-      <c r="I16" s="3">
-        <f t="shared" si="3"/>
-        <v>15.166666666666666</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="4"/>
-        <v>26</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="6"/>
-        <v>160</v>
-      </c>
-      <c r="M16" s="8">
-        <f t="shared" si="7"/>
-        <v>1820</v>
-      </c>
-    </row>
-    <row r="17" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F17" s="2">
-        <v>105000</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="1"/>
-        <v>560000</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="2"/>
-        <v>560</v>
-      </c>
-      <c r="I17" s="3">
-        <f t="shared" si="3"/>
-        <v>18.666666666666668</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="4"/>
-        <v>28</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="6"/>
-        <v>172</v>
-      </c>
-      <c r="M17" s="8">
-        <f t="shared" si="7"/>
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="18" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E18" s="2">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="F18" s="2">
-        <v>120000</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>680000</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="2"/>
-        <v>680</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="3"/>
-        <v>22.666666666666668</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="6"/>
-        <v>184</v>
-      </c>
-      <c r="M18" s="8">
-        <f t="shared" si="7"/>
-        <v>1940</v>
-      </c>
-    </row>
-    <row r="19" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="F19" s="6">
-        <v>136000</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="1"/>
-        <v>816000</v>
-      </c>
-      <c r="H19" s="7">
-        <f t="shared" si="2"/>
-        <v>816</v>
-      </c>
-      <c r="I19" s="7">
-        <f t="shared" si="3"/>
-        <v>27.2</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="5"/>
-        <v>100</v>
-      </c>
-      <c r="L19" s="6">
-        <f t="shared" si="6"/>
-        <v>196</v>
-      </c>
-      <c r="M19" s="8">
-        <f t="shared" si="7"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E20" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="F20" s="6">
-        <v>153000</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="1"/>
-        <v>969000</v>
-      </c>
-      <c r="H20" s="7">
-        <f t="shared" si="2"/>
-        <v>969</v>
-      </c>
-      <c r="I20" s="7">
-        <f t="shared" si="3"/>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="5"/>
-        <v>106</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="6"/>
-        <v>208</v>
-      </c>
-      <c r="M20" s="8">
-        <f t="shared" si="7"/>
-        <v>2060</v>
-      </c>
-    </row>
-    <row r="21" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E21" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="F21" s="6">
-        <v>171000</v>
-      </c>
-      <c r="G21" s="6">
-        <f t="shared" si="1"/>
-        <v>1140000</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="2"/>
-        <v>1140</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" si="3"/>
-        <v>38</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="5"/>
-        <v>112</v>
-      </c>
-      <c r="L21" s="6">
-        <f t="shared" si="6"/>
-        <v>220</v>
-      </c>
-      <c r="M21" s="8">
-        <f t="shared" si="7"/>
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="22" spans="5:13" x14ac:dyDescent="0.4">
-      <c r="E22" s="6">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F22" s="6">
-        <v>190000</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="1"/>
-        <v>1330000</v>
-      </c>
-      <c r="H22" s="7">
-        <f t="shared" si="2"/>
-        <v>1330</v>
-      </c>
-      <c r="I22" s="7">
-        <f t="shared" si="3"/>
-        <v>44.333333333333336</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="5"/>
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="6"/>
-        <v>232</v>
+        <f t="shared" si="8"/>
+        <v>384</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="7"/>
-        <v>2180</v>
+        <f t="shared" si="9"/>
+        <v>2560</v>
+      </c>
+      <c r="N22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="Q22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="R22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="S22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="T22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="U22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="V22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="W22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="X22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="Y22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="Z22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="AA22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="AB22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
+      </c>
+      <c r="AC22" s="9">
+        <f t="shared" si="11"/>
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="N4:AC22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>3000</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2347,7 +3702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2470,7 +3825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keijo\Documents\GitHub\murasakisan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECA0C97-006A-489C-A812-09B2772273F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
   </bookViews>
   <sheets>
     <sheet name="インフレ" sheetId="4" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t xml:space="preserve">            next_exp_required[_summoner] = 3000;</t>
   </si>
@@ -315,15 +314,47 @@
     <t>coin/day(ave)</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>coin/day(max)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craft(ave)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craft(max)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cost(3d)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cost(sub)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cost(craft)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>craftable items</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pt/sumL</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -370,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -398,7 +429,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -695,17 +729,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AC22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AX22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14:AB14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W34" sqref="W34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="4.25" style="6" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="6" bestFit="1" customWidth="1"/>
@@ -717,19 +751,25 @@
     <col min="11" max="11" width="12.375" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="7.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.375" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="7.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="29" width="8.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="6"/>
+    <col min="14" max="14" width="13.75" style="8" customWidth="1"/>
+    <col min="15" max="15" width="9" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9" style="8" customWidth="1"/>
+    <col min="19" max="21" width="7.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="7.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="26" max="34" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:29" x14ac:dyDescent="0.4">
-      <c r="N1" s="9">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="2:29" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:50" x14ac:dyDescent="0.4">
+      <c r="S1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B2" s="6" t="s">
         <v>74</v>
       </c>
@@ -763,76 +803,154 @@
       <c r="M2" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="S2" s="9">
         <v>1</v>
       </c>
-      <c r="O2" s="9">
-        <f>N2+1</f>
+      <c r="T2" s="9">
+        <f>S2+1</f>
         <v>2</v>
       </c>
-      <c r="P2" s="9">
-        <f t="shared" ref="P2:AC2" si="0">O2+1</f>
+      <c r="U2" s="9">
+        <f t="shared" ref="U2:AH2" si="0">T2+1</f>
         <v>3</v>
       </c>
-      <c r="Q2" s="9">
+      <c r="V2" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R2" s="9">
+      <c r="W2" s="9">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="S2" s="9">
+      <c r="X2" s="9">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="T2" s="9">
+      <c r="Y2" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="U2" s="9">
+      <c r="Z2" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="V2" s="9">
+      <c r="AA2" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W2" s="9">
+      <c r="AB2" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="X2" s="9">
+      <c r="AC2" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="Y2" s="9">
+      <c r="AD2" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="Z2" s="9">
+      <c r="AE2" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="AA2" s="9">
+      <c r="AF2" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="AB2" s="9">
+      <c r="AG2" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AH2" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="AI2" s="9">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="9">
+        <f>AI2+1</f>
+        <v>2</v>
+      </c>
+      <c r="AK2" s="9">
+        <f t="shared" ref="AK2" si="1">AJ2+1</f>
+        <v>3</v>
+      </c>
+      <c r="AL2" s="9">
+        <f t="shared" ref="AL2" si="2">AK2+1</f>
+        <v>4</v>
+      </c>
+      <c r="AM2" s="9">
+        <f t="shared" ref="AM2" si="3">AL2+1</f>
+        <v>5</v>
+      </c>
+      <c r="AN2" s="9">
+        <f t="shared" ref="AN2" si="4">AM2+1</f>
+        <v>6</v>
+      </c>
+      <c r="AO2" s="9">
+        <f t="shared" ref="AO2" si="5">AN2+1</f>
+        <v>7</v>
+      </c>
+      <c r="AP2" s="9">
+        <f t="shared" ref="AP2" si="6">AO2+1</f>
+        <v>8</v>
+      </c>
+      <c r="AQ2" s="9">
+        <f t="shared" ref="AQ2" si="7">AP2+1</f>
+        <v>9</v>
+      </c>
+      <c r="AR2" s="9">
+        <f t="shared" ref="AR2" si="8">AQ2+1</f>
+        <v>10</v>
+      </c>
+      <c r="AS2" s="9">
+        <f t="shared" ref="AS2" si="9">AR2+1</f>
+        <v>11</v>
+      </c>
+      <c r="AT2" s="9">
+        <f t="shared" ref="AT2" si="10">AS2+1</f>
+        <v>12</v>
+      </c>
+      <c r="AU2" s="9">
+        <f t="shared" ref="AU2" si="11">AT2+1</f>
+        <v>13</v>
+      </c>
+      <c r="AV2" s="9">
+        <f t="shared" ref="AV2" si="12">AU2+1</f>
+        <v>14</v>
+      </c>
+      <c r="AW2" s="9">
+        <f t="shared" ref="AW2" si="13">AV2+1</f>
+        <v>15</v>
+      </c>
+      <c r="AX2" s="9">
+        <f t="shared" ref="AX2" si="14">AW2+1</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B3" s="6" t="s">
         <v>73</v>
       </c>
       <c r="C3" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" s="6">
         <v>1</v>
@@ -847,61 +965,124 @@
       <c r="M3" s="8">
         <v>1000</v>
       </c>
-      <c r="N3" s="9">
-        <v>3000</v>
-      </c>
-      <c r="O3" s="9">
+      <c r="N3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="O3" s="8">
+        <f>N3*3</f>
+        <v>3000</v>
+      </c>
+      <c r="P3" s="8">
+        <f>O3/10</f>
+        <v>300</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>O3/2</f>
+        <v>1500</v>
+      </c>
+      <c r="S3" s="9">
+        <v>3000</v>
+      </c>
+      <c r="T3" s="9">
         <v>6000</v>
       </c>
-      <c r="P3" s="9">
+      <c r="U3" s="9">
         <v>10000</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="V3" s="9">
         <v>15000</v>
       </c>
-      <c r="R3" s="9">
+      <c r="W3" s="9">
         <v>21000</v>
       </c>
-      <c r="S3" s="9">
+      <c r="X3" s="9">
         <v>28000</v>
       </c>
-      <c r="T3" s="9">
+      <c r="Y3" s="9">
         <v>36000</v>
       </c>
-      <c r="U3" s="9">
+      <c r="Z3" s="9">
         <v>45000</v>
       </c>
-      <c r="V3" s="9">
+      <c r="AA3" s="9">
         <v>55000</v>
       </c>
-      <c r="W3" s="9">
+      <c r="AB3" s="9">
         <v>66000</v>
       </c>
-      <c r="X3" s="9">
+      <c r="AC3" s="9">
         <v>78000</v>
       </c>
-      <c r="Y3" s="9">
+      <c r="AD3" s="9">
         <v>91000</v>
       </c>
-      <c r="Z3" s="9">
+      <c r="AE3" s="9">
         <v>105000</v>
       </c>
-      <c r="AA3" s="9">
+      <c r="AF3" s="9">
         <v>120000</v>
       </c>
-      <c r="AB3" s="9">
+      <c r="AG3" s="9">
         <v>136000</v>
       </c>
-      <c r="AC3" s="9">
+      <c r="AH3" s="9">
         <v>153000</v>
       </c>
-    </row>
-    <row r="4" spans="2:29" x14ac:dyDescent="0.4">
+      <c r="AI3" s="9">
+        <v>3000</v>
+      </c>
+      <c r="AJ3" s="9">
+        <v>6000</v>
+      </c>
+      <c r="AK3" s="9">
+        <v>10000</v>
+      </c>
+      <c r="AL3" s="9">
+        <v>15000</v>
+      </c>
+      <c r="AM3" s="9">
+        <v>21000</v>
+      </c>
+      <c r="AN3" s="9">
+        <v>28000</v>
+      </c>
+      <c r="AO3" s="9">
+        <v>36000</v>
+      </c>
+      <c r="AP3" s="9">
+        <v>45000</v>
+      </c>
+      <c r="AQ3" s="9">
+        <v>55000</v>
+      </c>
+      <c r="AR3" s="9">
+        <v>66000</v>
+      </c>
+      <c r="AS3" s="9">
+        <v>78000</v>
+      </c>
+      <c r="AT3" s="9">
+        <v>91000</v>
+      </c>
+      <c r="AU3" s="9">
+        <v>105000</v>
+      </c>
+      <c r="AV3" s="9">
+        <v>120000</v>
+      </c>
+      <c r="AW3" s="9">
+        <v>136000</v>
+      </c>
+      <c r="AX3" s="9">
+        <v>153000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:50" x14ac:dyDescent="0.4">
       <c r="B4" s="6" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6">
         <f>E3+1</f>
@@ -924,1907 +1105,3515 @@
       </c>
       <c r="J4" s="6">
         <f>(E4-1)*$C$3</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4" s="6">
         <f>$C$4*(E4+J4/4)</f>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="L4" s="6">
         <f>$C$4*(E4+J4)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M4" s="8">
         <f>$M$3*(100+K4)/100</f>
-        <v>1120</v>
-      </c>
-      <c r="N4" s="9">
-        <f>MAX(N$3-(N$3-3000)/(8*N$2)*$K4,3000)</f>
-        <v>3000</v>
-      </c>
-      <c r="O4" s="9">
-        <f t="shared" ref="O4:AC19" si="1">MAX(O$3-(O$3-3000)/(8*O$2)*$K4,3000)</f>
-        <v>3750</v>
-      </c>
-      <c r="P4" s="9">
-        <f t="shared" si="1"/>
-        <v>6500</v>
-      </c>
-      <c r="Q4" s="9">
-        <f t="shared" si="1"/>
-        <v>10500</v>
-      </c>
-      <c r="R4" s="9">
-        <f t="shared" si="1"/>
-        <v>15600</v>
+        <v>1125</v>
+      </c>
+      <c r="N4" s="8">
+        <f>$N$3*(100+L4)/100</f>
+        <v>1200</v>
+      </c>
+      <c r="O4" s="8">
+        <f t="shared" ref="O4:O22" si="15">N4*3</f>
+        <v>3600</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" ref="P4:P22" si="16">O4/10</f>
+        <v>360</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" ref="Q4:Q22" si="17">O4/2</f>
+        <v>1800</v>
+      </c>
+      <c r="R4" s="8">
+        <f>H4/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="S4" s="9">
-        <f t="shared" si="1"/>
-        <v>21750</v>
+        <f>MAX(S$3-(S$3-3000)/($C$6*S$2)*$K4,3000)</f>
+        <v>3000</v>
       </c>
       <c r="T4" s="9">
-        <f t="shared" si="1"/>
-        <v>28928.571428571428</v>
+        <f t="shared" ref="T4:AH19" si="18">MAX(T$3-(T$3-3000)/($C$6*T$2)*$K4,3000)</f>
+        <v>3500</v>
       </c>
       <c r="U4" s="9">
-        <f t="shared" si="1"/>
-        <v>37125</v>
+        <f t="shared" si="18"/>
+        <v>6111.1111111111113</v>
       </c>
       <c r="V4" s="9">
-        <f t="shared" si="1"/>
-        <v>46333.333333333336</v>
+        <f t="shared" si="18"/>
+        <v>10000</v>
       </c>
       <c r="W4" s="9">
-        <f t="shared" si="1"/>
-        <v>56550</v>
+        <f t="shared" si="18"/>
+        <v>15000</v>
       </c>
       <c r="X4" s="9">
-        <f t="shared" si="1"/>
-        <v>67772.727272727265</v>
+        <f t="shared" si="18"/>
+        <v>21055.555555555555</v>
       </c>
       <c r="Y4" s="9">
-        <f t="shared" si="1"/>
-        <v>80000</v>
+        <f t="shared" si="18"/>
+        <v>28142.857142857145</v>
       </c>
       <c r="Z4" s="9">
-        <f t="shared" si="1"/>
-        <v>93230.769230769234</v>
+        <f t="shared" si="18"/>
+        <v>36250</v>
       </c>
       <c r="AA4" s="9">
-        <f t="shared" si="1"/>
-        <v>107464.28571428571</v>
+        <f t="shared" si="18"/>
+        <v>45370.370370370372</v>
       </c>
       <c r="AB4" s="9">
-        <f t="shared" si="1"/>
-        <v>122700</v>
+        <f t="shared" si="18"/>
+        <v>55500</v>
       </c>
       <c r="AC4" s="9">
-        <f t="shared" si="1"/>
-        <v>138937.5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>66636.363636363632</v>
+      </c>
+      <c r="AD4" s="9">
+        <f t="shared" si="18"/>
+        <v>78777.777777777781</v>
+      </c>
+      <c r="AE4" s="9">
+        <f t="shared" si="18"/>
+        <v>91923.076923076922</v>
+      </c>
+      <c r="AF4" s="9">
+        <f t="shared" si="18"/>
+        <v>106071.42857142858</v>
+      </c>
+      <c r="AG4" s="9">
+        <f t="shared" si="18"/>
+        <v>121222.22222222222</v>
+      </c>
+      <c r="AH4" s="9">
+        <f t="shared" si="18"/>
+        <v>137375</v>
+      </c>
+      <c r="AI4" s="9">
+        <f>MAX(AI$3-(AI$3-3000)/($C$6*AI$2)*$L4,3000)</f>
+        <v>3000</v>
+      </c>
+      <c r="AJ4" s="9">
+        <f t="shared" ref="AJ4:AX19" si="19">MAX(AJ$3-(AJ$3-3000)/($C$6*AJ$2)*$L4,3000)</f>
+        <v>3000</v>
+      </c>
+      <c r="AK4" s="9">
+        <f t="shared" si="19"/>
+        <v>3777.7777777777783</v>
+      </c>
+      <c r="AL4" s="9">
+        <f t="shared" si="19"/>
+        <v>7000</v>
+      </c>
+      <c r="AM4" s="9">
+        <f t="shared" si="19"/>
+        <v>11400</v>
+      </c>
+      <c r="AN4" s="9">
+        <f t="shared" si="19"/>
+        <v>16888.888888888891</v>
+      </c>
+      <c r="AO4" s="9">
+        <f t="shared" si="19"/>
+        <v>23428.571428571428</v>
+      </c>
+      <c r="AP4" s="9">
+        <f t="shared" si="19"/>
+        <v>31000</v>
+      </c>
+      <c r="AQ4" s="9">
+        <f t="shared" si="19"/>
+        <v>39592.592592592591</v>
+      </c>
+      <c r="AR4" s="9">
+        <f t="shared" si="19"/>
+        <v>49200</v>
+      </c>
+      <c r="AS4" s="9">
+        <f t="shared" si="19"/>
+        <v>59818.181818181816</v>
+      </c>
+      <c r="AT4" s="9">
+        <f t="shared" si="19"/>
+        <v>71444.444444444438</v>
+      </c>
+      <c r="AU4" s="9">
+        <f t="shared" si="19"/>
+        <v>84076.923076923078</v>
+      </c>
+      <c r="AV4" s="9">
+        <f t="shared" si="19"/>
+        <v>97714.28571428571</v>
+      </c>
+      <c r="AW4" s="9">
+        <f t="shared" si="19"/>
+        <v>112355.55555555556</v>
+      </c>
+      <c r="AX4" s="9">
+        <f t="shared" si="19"/>
+        <v>128000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:50" x14ac:dyDescent="0.4">
       <c r="E5" s="6">
-        <f t="shared" ref="E5:E22" si="2">E4+1</f>
+        <f t="shared" ref="E5:E22" si="20">E4+1</f>
         <v>3</v>
       </c>
       <c r="F5" s="6">
         <v>3000</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G22" si="3">G4+F5</f>
+        <f t="shared" ref="G5:G22" si="21">G4+F5</f>
         <v>4000</v>
       </c>
       <c r="H5" s="7">
-        <f t="shared" ref="H5:H22" si="4">G5/$C$2</f>
+        <f t="shared" ref="H5:H22" si="22">G5/$C$2</f>
         <v>4</v>
       </c>
       <c r="I5" s="7">
-        <f t="shared" ref="I5:I22" si="5">H5/30</f>
+        <f t="shared" ref="I5:I22" si="23">H5/30</f>
         <v>0.13333333333333333</v>
       </c>
       <c r="J5" s="6">
-        <f t="shared" ref="J5:J22" si="6">(E5-1)*$C$3</f>
-        <v>8</v>
+        <f t="shared" ref="J5:J22" si="24">(E5-1)*$C$3</f>
+        <v>4</v>
       </c>
       <c r="K5" s="6">
-        <f t="shared" ref="K5:K22" si="7">$C$4*(E5+J5/4)</f>
+        <f t="shared" ref="K5:K22" si="25">$C$4*(E5+J5/4)</f>
         <v>20</v>
       </c>
       <c r="L5" s="6">
-        <f t="shared" ref="L5:L22" si="8">$C$4*(E5+J5)</f>
-        <v>44</v>
+        <f t="shared" ref="L5:L22" si="26">$C$4*(E5+J5)</f>
+        <v>35</v>
       </c>
       <c r="M5" s="8">
-        <f t="shared" ref="M5:M22" si="9">$M$3*(100+K5)/100</f>
+        <f t="shared" ref="M5:M22" si="27">$M$3*(100+K5)/100</f>
         <v>1200</v>
       </c>
-      <c r="N5" s="9">
-        <f t="shared" ref="N5:AC20" si="10">MAX(N$3-(N$3-3000)/(8*N$2)*$K5,3000)</f>
-        <v>3000</v>
-      </c>
-      <c r="O5" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P5" s="9">
-        <f t="shared" si="1"/>
-        <v>4166.6666666666661</v>
-      </c>
-      <c r="Q5" s="9">
-        <f t="shared" si="1"/>
-        <v>7500</v>
-      </c>
-      <c r="R5" s="9">
-        <f t="shared" si="1"/>
-        <v>12000</v>
+      <c r="N5" s="8">
+        <f t="shared" ref="N5:N22" si="28">$N$3*(100+L5)/100</f>
+        <v>1350</v>
+      </c>
+      <c r="O5" s="8">
+        <f t="shared" si="15"/>
+        <v>4050</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="16"/>
+        <v>405</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="17"/>
+        <v>2025</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" ref="R5:R22" si="29">H5/6</f>
+        <v>0.66666666666666663</v>
       </c>
       <c r="S5" s="9">
-        <f t="shared" si="1"/>
-        <v>17583.333333333332</v>
+        <f t="shared" ref="S5:AH20" si="30">MAX(S$3-(S$3-3000)/($C$6*S$2)*$K5,3000)</f>
+        <v>3000</v>
       </c>
       <c r="T5" s="9">
-        <f t="shared" si="1"/>
-        <v>24214.285714285714</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="U5" s="9">
-        <f t="shared" si="1"/>
-        <v>31875</v>
+        <f t="shared" si="18"/>
+        <v>3777.7777777777783</v>
       </c>
       <c r="V5" s="9">
-        <f t="shared" si="1"/>
-        <v>40555.555555555555</v>
+        <f t="shared" si="18"/>
+        <v>7000</v>
       </c>
       <c r="W5" s="9">
-        <f t="shared" si="1"/>
-        <v>50250</v>
+        <f t="shared" si="18"/>
+        <v>11400</v>
       </c>
       <c r="X5" s="9">
-        <f t="shared" si="1"/>
-        <v>60954.545454545456</v>
+        <f t="shared" si="18"/>
+        <v>16888.888888888891</v>
       </c>
       <c r="Y5" s="9">
-        <f t="shared" si="1"/>
-        <v>72666.666666666672</v>
+        <f t="shared" si="18"/>
+        <v>23428.571428571428</v>
       </c>
       <c r="Z5" s="9">
-        <f t="shared" si="1"/>
-        <v>85384.61538461539</v>
+        <f t="shared" si="18"/>
+        <v>31000</v>
       </c>
       <c r="AA5" s="9">
-        <f t="shared" si="1"/>
-        <v>99107.142857142855</v>
+        <f t="shared" si="18"/>
+        <v>39592.592592592591</v>
       </c>
       <c r="AB5" s="9">
-        <f t="shared" si="1"/>
-        <v>113833.33333333334</v>
+        <f t="shared" si="18"/>
+        <v>49200</v>
       </c>
       <c r="AC5" s="9">
-        <f t="shared" si="1"/>
-        <v>129562.5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>59818.181818181816</v>
+      </c>
+      <c r="AD5" s="9">
+        <f t="shared" si="18"/>
+        <v>71444.444444444438</v>
+      </c>
+      <c r="AE5" s="9">
+        <f t="shared" si="18"/>
+        <v>84076.923076923078</v>
+      </c>
+      <c r="AF5" s="9">
+        <f t="shared" si="18"/>
+        <v>97714.28571428571</v>
+      </c>
+      <c r="AG5" s="9">
+        <f t="shared" si="18"/>
+        <v>112355.55555555556</v>
+      </c>
+      <c r="AH5" s="9">
+        <f t="shared" si="18"/>
+        <v>128000</v>
+      </c>
+      <c r="AI5" s="9">
+        <f t="shared" ref="AI5:AX20" si="31">MAX(AI$3-(AI$3-3000)/($C$6*AI$2)*$L5,3000)</f>
+        <v>3000</v>
+      </c>
+      <c r="AJ5" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK5" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL5" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM5" s="9">
+        <f t="shared" si="19"/>
+        <v>4200</v>
+      </c>
+      <c r="AN5" s="9">
+        <f t="shared" si="19"/>
+        <v>8555.5555555555547</v>
+      </c>
+      <c r="AO5" s="9">
+        <f t="shared" si="19"/>
+        <v>14000</v>
+      </c>
+      <c r="AP5" s="9">
+        <f t="shared" si="19"/>
+        <v>20500</v>
+      </c>
+      <c r="AQ5" s="9">
+        <f t="shared" si="19"/>
+        <v>28037.03703703704</v>
+      </c>
+      <c r="AR5" s="9">
+        <f t="shared" si="19"/>
+        <v>36600</v>
+      </c>
+      <c r="AS5" s="9">
+        <f t="shared" si="19"/>
+        <v>46181.818181818177</v>
+      </c>
+      <c r="AT5" s="9">
+        <f t="shared" si="19"/>
+        <v>56777.777777777774</v>
+      </c>
+      <c r="AU5" s="9">
+        <f t="shared" si="19"/>
+        <v>68384.615384615376</v>
+      </c>
+      <c r="AV5" s="9">
+        <f t="shared" si="19"/>
+        <v>81000</v>
+      </c>
+      <c r="AW5" s="9">
+        <f t="shared" si="19"/>
+        <v>94622.222222222219</v>
+      </c>
+      <c r="AX5" s="9">
+        <f t="shared" si="19"/>
+        <v>109250</v>
+      </c>
+    </row>
+    <row r="6" spans="2:50" x14ac:dyDescent="0.4">
+      <c r="B6" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="6">
+        <f>(1*C4)+(C3/4*C4)</f>
+        <v>7.5</v>
+      </c>
       <c r="E6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>4</v>
       </c>
       <c r="F6" s="6">
         <v>6000</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>10000</v>
       </c>
       <c r="H6" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="J6" s="6">
-        <f t="shared" si="6"/>
-        <v>12</v>
+        <f t="shared" si="24"/>
+        <v>6</v>
       </c>
       <c r="K6" s="6">
-        <f t="shared" si="7"/>
-        <v>28</v>
+        <f t="shared" si="25"/>
+        <v>27.5</v>
       </c>
       <c r="L6" s="6">
-        <f t="shared" si="8"/>
-        <v>64</v>
+        <f t="shared" si="26"/>
+        <v>50</v>
       </c>
       <c r="M6" s="8">
-        <f t="shared" si="9"/>
-        <v>1280</v>
-      </c>
-      <c r="N6" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O6" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P6" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="27"/>
+        <v>1275</v>
+      </c>
+      <c r="N6" s="8">
+        <f t="shared" si="28"/>
+        <v>1500</v>
+      </c>
+      <c r="O6" s="8">
+        <f t="shared" si="15"/>
         <v>4500</v>
       </c>
-      <c r="R6" s="9">
-        <f t="shared" si="1"/>
-        <v>8400</v>
+      <c r="P6" s="8">
+        <f t="shared" si="16"/>
+        <v>450</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="17"/>
+        <v>2250</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="29"/>
+        <v>1.6666666666666667</v>
       </c>
       <c r="S6" s="9">
-        <f t="shared" si="1"/>
-        <v>13416.666666666666</v>
+        <f t="shared" si="30"/>
+        <v>3000</v>
       </c>
       <c r="T6" s="9">
-        <f t="shared" si="1"/>
-        <v>19500</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="U6" s="9">
-        <f t="shared" si="1"/>
-        <v>26625</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="V6" s="9">
-        <f t="shared" si="1"/>
-        <v>34777.777777777781</v>
+        <f t="shared" si="18"/>
+        <v>4000</v>
       </c>
       <c r="W6" s="9">
-        <f t="shared" si="1"/>
-        <v>43950</v>
+        <f t="shared" si="18"/>
+        <v>7800</v>
       </c>
       <c r="X6" s="9">
-        <f t="shared" si="1"/>
-        <v>54136.363636363632</v>
+        <f t="shared" si="18"/>
+        <v>12722.222222222223</v>
       </c>
       <c r="Y6" s="9">
-        <f t="shared" si="1"/>
-        <v>65333.333333333336</v>
+        <f t="shared" si="18"/>
+        <v>18714.285714285714</v>
       </c>
       <c r="Z6" s="9">
-        <f t="shared" si="1"/>
-        <v>77538.461538461532</v>
+        <f t="shared" si="18"/>
+        <v>25750</v>
       </c>
       <c r="AA6" s="9">
-        <f t="shared" si="1"/>
-        <v>90750</v>
+        <f t="shared" si="18"/>
+        <v>33814.814814814818</v>
       </c>
       <c r="AB6" s="9">
-        <f t="shared" si="1"/>
-        <v>104966.66666666667</v>
+        <f t="shared" si="18"/>
+        <v>42900</v>
       </c>
       <c r="AC6" s="9">
-        <f t="shared" si="1"/>
-        <v>120187.5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>53000</v>
+      </c>
+      <c r="AD6" s="9">
+        <f t="shared" si="18"/>
+        <v>64111.111111111109</v>
+      </c>
+      <c r="AE6" s="9">
+        <f t="shared" si="18"/>
+        <v>76230.769230769234</v>
+      </c>
+      <c r="AF6" s="9">
+        <f t="shared" si="18"/>
+        <v>89357.142857142855</v>
+      </c>
+      <c r="AG6" s="9">
+        <f t="shared" si="18"/>
+        <v>103488.88888888889</v>
+      </c>
+      <c r="AH6" s="9">
+        <f t="shared" si="18"/>
+        <v>118625</v>
+      </c>
+      <c r="AI6" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ6" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK6" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL6" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM6" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN6" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO6" s="9">
+        <f t="shared" si="19"/>
+        <v>4571.4285714285725</v>
+      </c>
+      <c r="AP6" s="9">
+        <f t="shared" si="19"/>
+        <v>10000</v>
+      </c>
+      <c r="AQ6" s="9">
+        <f t="shared" si="19"/>
+        <v>16481.481481481482</v>
+      </c>
+      <c r="AR6" s="9">
+        <f t="shared" si="19"/>
+        <v>24000</v>
+      </c>
+      <c r="AS6" s="9">
+        <f t="shared" si="19"/>
+        <v>32545.454545454544</v>
+      </c>
+      <c r="AT6" s="9">
+        <f t="shared" si="19"/>
+        <v>42111.111111111109</v>
+      </c>
+      <c r="AU6" s="9">
+        <f t="shared" si="19"/>
+        <v>52692.307692307688</v>
+      </c>
+      <c r="AV6" s="9">
+        <f t="shared" si="19"/>
+        <v>64285.71428571429</v>
+      </c>
+      <c r="AW6" s="9">
+        <f t="shared" si="19"/>
+        <v>76888.888888888891</v>
+      </c>
+      <c r="AX6" s="9">
+        <f t="shared" si="19"/>
+        <v>90500</v>
+      </c>
+    </row>
+    <row r="7" spans="2:50" x14ac:dyDescent="0.4">
       <c r="E7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>5</v>
       </c>
       <c r="F7" s="6">
         <v>10000</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>20000</v>
       </c>
       <c r="H7" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="I7" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="6"/>
-        <v>16</v>
+        <f t="shared" si="24"/>
+        <v>8</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="7"/>
-        <v>36</v>
+        <f t="shared" si="25"/>
+        <v>35</v>
       </c>
       <c r="L7" s="6">
-        <f t="shared" si="8"/>
-        <v>84</v>
+        <f t="shared" si="26"/>
+        <v>65</v>
       </c>
       <c r="M7" s="8">
-        <f t="shared" si="9"/>
-        <v>1360</v>
-      </c>
-      <c r="N7" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O7" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P7" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q7" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R7" s="9">
-        <f t="shared" si="1"/>
-        <v>4800</v>
+        <f t="shared" si="27"/>
+        <v>1350</v>
+      </c>
+      <c r="N7" s="8">
+        <f t="shared" si="28"/>
+        <v>1650</v>
+      </c>
+      <c r="O7" s="8">
+        <f t="shared" si="15"/>
+        <v>4950</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="16"/>
+        <v>495</v>
+      </c>
+      <c r="Q7" s="8">
+        <f t="shared" si="17"/>
+        <v>2475</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="29"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="S7" s="9">
-        <f t="shared" si="1"/>
-        <v>9250</v>
+        <f t="shared" si="30"/>
+        <v>3000</v>
       </c>
       <c r="T7" s="9">
-        <f t="shared" si="1"/>
-        <v>14785.714285714283</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="U7" s="9">
-        <f t="shared" si="1"/>
-        <v>21375</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="V7" s="9">
-        <f t="shared" si="1"/>
-        <v>29000</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="W7" s="9">
-        <f t="shared" si="1"/>
-        <v>37650</v>
+        <f t="shared" si="18"/>
+        <v>4200</v>
       </c>
       <c r="X7" s="9">
-        <f t="shared" si="1"/>
-        <v>47318.181818181823</v>
+        <f t="shared" si="18"/>
+        <v>8555.5555555555547</v>
       </c>
       <c r="Y7" s="9">
-        <f t="shared" si="1"/>
-        <v>58000</v>
+        <f t="shared" si="18"/>
+        <v>14000</v>
       </c>
       <c r="Z7" s="9">
-        <f t="shared" si="1"/>
-        <v>69692.307692307688</v>
+        <f t="shared" si="18"/>
+        <v>20500</v>
       </c>
       <c r="AA7" s="9">
-        <f t="shared" si="1"/>
-        <v>82392.857142857145</v>
+        <f t="shared" si="18"/>
+        <v>28037.03703703704</v>
       </c>
       <c r="AB7" s="9">
-        <f t="shared" si="1"/>
-        <v>96100</v>
+        <f t="shared" si="18"/>
+        <v>36600</v>
       </c>
       <c r="AC7" s="9">
-        <f t="shared" si="1"/>
-        <v>110812.5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>46181.818181818177</v>
+      </c>
+      <c r="AD7" s="9">
+        <f t="shared" si="18"/>
+        <v>56777.777777777774</v>
+      </c>
+      <c r="AE7" s="9">
+        <f t="shared" si="18"/>
+        <v>68384.615384615376</v>
+      </c>
+      <c r="AF7" s="9">
+        <f t="shared" si="18"/>
+        <v>81000</v>
+      </c>
+      <c r="AG7" s="9">
+        <f t="shared" si="18"/>
+        <v>94622.222222222219</v>
+      </c>
+      <c r="AH7" s="9">
+        <f t="shared" si="18"/>
+        <v>109250</v>
+      </c>
+      <c r="AI7" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ7" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK7" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL7" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM7" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN7" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO7" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP7" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ7" s="9">
+        <f t="shared" si="19"/>
+        <v>4925.925925925927</v>
+      </c>
+      <c r="AR7" s="9">
+        <f t="shared" si="19"/>
+        <v>11400</v>
+      </c>
+      <c r="AS7" s="9">
+        <f t="shared" si="19"/>
+        <v>18909.090909090904</v>
+      </c>
+      <c r="AT7" s="9">
+        <f t="shared" si="19"/>
+        <v>27444.444444444438</v>
+      </c>
+      <c r="AU7" s="9">
+        <f t="shared" si="19"/>
+        <v>37000</v>
+      </c>
+      <c r="AV7" s="9">
+        <f t="shared" si="19"/>
+        <v>47571.42857142858</v>
+      </c>
+      <c r="AW7" s="9">
+        <f t="shared" si="19"/>
+        <v>59155.555555555562</v>
+      </c>
+      <c r="AX7" s="9">
+        <f t="shared" si="19"/>
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="8" spans="2:50" x14ac:dyDescent="0.4">
       <c r="E8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>6</v>
       </c>
       <c r="F8" s="6">
         <v>15000</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>35000</v>
       </c>
       <c r="H8" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>35</v>
       </c>
       <c r="I8" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1.1666666666666667</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f t="shared" si="24"/>
+        <v>10</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="7"/>
-        <v>44</v>
+        <f t="shared" si="25"/>
+        <v>42.5</v>
       </c>
       <c r="L8" s="6">
-        <f t="shared" si="8"/>
-        <v>104</v>
+        <f t="shared" si="26"/>
+        <v>80</v>
       </c>
       <c r="M8" s="8">
-        <f t="shared" si="9"/>
-        <v>1440</v>
-      </c>
-      <c r="N8" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O8" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P8" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q8" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R8" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="27"/>
+        <v>1425</v>
+      </c>
+      <c r="N8" s="8">
+        <f t="shared" si="28"/>
+        <v>1800</v>
+      </c>
+      <c r="O8" s="8">
+        <f t="shared" si="15"/>
+        <v>5400</v>
+      </c>
+      <c r="P8" s="8">
+        <f t="shared" si="16"/>
+        <v>540</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" si="17"/>
+        <v>2700</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="29"/>
+        <v>5.833333333333333</v>
       </c>
       <c r="S8" s="9">
-        <f t="shared" si="1"/>
-        <v>5083.3333333333321</v>
+        <f t="shared" si="30"/>
+        <v>3000</v>
       </c>
       <c r="T8" s="9">
-        <f t="shared" si="1"/>
-        <v>10071.428571428569</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="U8" s="9">
-        <f t="shared" si="1"/>
-        <v>16125</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="V8" s="9">
-        <f t="shared" si="1"/>
-        <v>23222.222222222226</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="W8" s="9">
-        <f t="shared" si="1"/>
-        <v>31350</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="X8" s="9">
-        <f t="shared" si="1"/>
-        <v>40500</v>
+        <f t="shared" si="18"/>
+        <v>4388.8888888888905</v>
       </c>
       <c r="Y8" s="9">
-        <f t="shared" si="1"/>
-        <v>50666.666666666672</v>
+        <f t="shared" si="18"/>
+        <v>9285.7142857142862</v>
       </c>
       <c r="Z8" s="9">
-        <f t="shared" si="1"/>
-        <v>61846.153846153851</v>
+        <f t="shared" si="18"/>
+        <v>15250</v>
       </c>
       <c r="AA8" s="9">
-        <f t="shared" si="1"/>
-        <v>74035.71428571429</v>
+        <f t="shared" si="18"/>
+        <v>22259.259259259263</v>
       </c>
       <c r="AB8" s="9">
-        <f t="shared" si="1"/>
-        <v>87233.333333333343</v>
+        <f t="shared" si="18"/>
+        <v>30300</v>
       </c>
       <c r="AC8" s="9">
-        <f t="shared" si="1"/>
-        <v>101437.5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>39363.63636363636</v>
+      </c>
+      <c r="AD8" s="9">
+        <f t="shared" si="18"/>
+        <v>49444.444444444445</v>
+      </c>
+      <c r="AE8" s="9">
+        <f t="shared" si="18"/>
+        <v>60538.461538461539</v>
+      </c>
+      <c r="AF8" s="9">
+        <f t="shared" si="18"/>
+        <v>72642.857142857145</v>
+      </c>
+      <c r="AG8" s="9">
+        <f t="shared" si="18"/>
+        <v>85755.555555555562</v>
+      </c>
+      <c r="AH8" s="9">
+        <f t="shared" si="18"/>
+        <v>99875</v>
+      </c>
+      <c r="AI8" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ8" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK8" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL8" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM8" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN8" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO8" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP8" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ8" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AR8" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AS8" s="9">
+        <f t="shared" si="19"/>
+        <v>5272.7272727272648</v>
+      </c>
+      <c r="AT8" s="9">
+        <f t="shared" si="19"/>
+        <v>12777.777777777781</v>
+      </c>
+      <c r="AU8" s="9">
+        <f t="shared" si="19"/>
+        <v>21307.692307692312</v>
+      </c>
+      <c r="AV8" s="9">
+        <f t="shared" si="19"/>
+        <v>30857.14285714287</v>
+      </c>
+      <c r="AW8" s="9">
+        <f t="shared" si="19"/>
+        <v>41422.222222222219</v>
+      </c>
+      <c r="AX8" s="9">
+        <f t="shared" si="19"/>
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:50" x14ac:dyDescent="0.4">
       <c r="E9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="F9" s="6">
         <v>21000</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>56000</v>
       </c>
       <c r="H9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>56</v>
       </c>
       <c r="I9" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1.8666666666666667</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f t="shared" si="24"/>
+        <v>12</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" si="7"/>
-        <v>52</v>
+        <f t="shared" si="25"/>
+        <v>50</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" si="8"/>
-        <v>124</v>
+        <f t="shared" si="26"/>
+        <v>95</v>
       </c>
       <c r="M9" s="8">
-        <f t="shared" si="9"/>
-        <v>1520</v>
-      </c>
-      <c r="N9" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O9" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P9" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q9" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R9" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="27"/>
+        <v>1500</v>
+      </c>
+      <c r="N9" s="8">
+        <f t="shared" si="28"/>
+        <v>1950</v>
+      </c>
+      <c r="O9" s="8">
+        <f t="shared" si="15"/>
+        <v>5850</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="16"/>
+        <v>585</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="17"/>
+        <v>2925</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="29"/>
+        <v>9.3333333333333339</v>
       </c>
       <c r="S9" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="T9" s="9">
-        <f t="shared" si="1"/>
-        <v>5357.1428571428551</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="U9" s="9">
-        <f t="shared" si="1"/>
-        <v>10875</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="V9" s="9">
-        <f t="shared" si="1"/>
-        <v>17444.444444444445</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="W9" s="9">
-        <f t="shared" si="1"/>
-        <v>25050</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="X9" s="9">
-        <f t="shared" si="1"/>
-        <v>33681.818181818184</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="Y9" s="9">
-        <f t="shared" si="1"/>
-        <v>43333.333333333336</v>
+        <f t="shared" si="18"/>
+        <v>4571.4285714285725</v>
       </c>
       <c r="Z9" s="9">
-        <f t="shared" si="1"/>
-        <v>54000</v>
+        <f t="shared" si="18"/>
+        <v>10000</v>
       </c>
       <c r="AA9" s="9">
-        <f t="shared" si="1"/>
-        <v>65678.57142857142</v>
+        <f t="shared" si="18"/>
+        <v>16481.481481481482</v>
       </c>
       <c r="AB9" s="9">
-        <f t="shared" si="1"/>
-        <v>78366.666666666672</v>
+        <f t="shared" si="18"/>
+        <v>24000</v>
       </c>
       <c r="AC9" s="9">
-        <f t="shared" si="1"/>
-        <v>92062.5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>32545.454545454544</v>
+      </c>
+      <c r="AD9" s="9">
+        <f t="shared" si="18"/>
+        <v>42111.111111111109</v>
+      </c>
+      <c r="AE9" s="9">
+        <f t="shared" si="18"/>
+        <v>52692.307692307688</v>
+      </c>
+      <c r="AF9" s="9">
+        <f t="shared" si="18"/>
+        <v>64285.71428571429</v>
+      </c>
+      <c r="AG9" s="9">
+        <f t="shared" si="18"/>
+        <v>76888.888888888891</v>
+      </c>
+      <c r="AH9" s="9">
+        <f t="shared" si="18"/>
+        <v>90500</v>
+      </c>
+      <c r="AI9" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ9" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK9" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL9" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM9" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN9" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO9" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP9" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ9" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AR9" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AS9" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AT9" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AU9" s="9">
+        <f t="shared" si="19"/>
+        <v>5615.3846153846098</v>
+      </c>
+      <c r="AV9" s="9">
+        <f t="shared" si="19"/>
+        <v>14142.857142857145</v>
+      </c>
+      <c r="AW9" s="9">
+        <f t="shared" si="19"/>
+        <v>23688.888888888891</v>
+      </c>
+      <c r="AX9" s="9">
+        <f t="shared" si="19"/>
+        <v>34250</v>
+      </c>
+    </row>
+    <row r="10" spans="2:50" x14ac:dyDescent="0.4">
       <c r="E10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="F10" s="6">
         <v>28000</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>84000</v>
       </c>
       <c r="H10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>84</v>
       </c>
       <c r="I10" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>2.8</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f t="shared" si="24"/>
+        <v>14</v>
       </c>
       <c r="K10" s="6">
-        <f t="shared" si="7"/>
-        <v>60</v>
+        <f t="shared" si="25"/>
+        <v>57.5</v>
       </c>
       <c r="L10" s="6">
-        <f t="shared" si="8"/>
-        <v>144</v>
+        <f t="shared" si="26"/>
+        <v>110</v>
       </c>
       <c r="M10" s="8">
-        <f t="shared" si="9"/>
-        <v>1600</v>
-      </c>
-      <c r="N10" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O10" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P10" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q10" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R10" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="27"/>
+        <v>1575</v>
+      </c>
+      <c r="N10" s="8">
+        <f t="shared" si="28"/>
+        <v>2100</v>
+      </c>
+      <c r="O10" s="8">
+        <f t="shared" si="15"/>
+        <v>6300</v>
+      </c>
+      <c r="P10" s="8">
+        <f t="shared" si="16"/>
+        <v>630</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="17"/>
+        <v>3150</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="29"/>
+        <v>14</v>
       </c>
       <c r="S10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="T10" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="U10" s="9">
-        <f t="shared" si="1"/>
-        <v>5625</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="V10" s="9">
-        <f t="shared" si="1"/>
-        <v>11666.666666666672</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="W10" s="9">
-        <f t="shared" si="1"/>
-        <v>18750</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="X10" s="9">
-        <f t="shared" si="1"/>
-        <v>26863.636363636368</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="Y10" s="9">
-        <f t="shared" si="1"/>
-        <v>36000</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="Z10" s="9">
-        <f t="shared" si="1"/>
-        <v>46153.846153846156</v>
+        <f t="shared" si="18"/>
+        <v>4750</v>
       </c>
       <c r="AA10" s="9">
-        <f t="shared" si="1"/>
-        <v>57321.428571428572</v>
+        <f t="shared" si="18"/>
+        <v>10703.703703703708</v>
       </c>
       <c r="AB10" s="9">
-        <f t="shared" si="1"/>
-        <v>69500</v>
+        <f t="shared" si="18"/>
+        <v>17700</v>
       </c>
       <c r="AC10" s="9">
-        <f t="shared" si="1"/>
-        <v>82687.5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>25727.272727272728</v>
+      </c>
+      <c r="AD10" s="9">
+        <f t="shared" si="18"/>
+        <v>34777.777777777774</v>
+      </c>
+      <c r="AE10" s="9">
+        <f t="shared" si="18"/>
+        <v>44846.153846153844</v>
+      </c>
+      <c r="AF10" s="9">
+        <f t="shared" si="18"/>
+        <v>55928.571428571435</v>
+      </c>
+      <c r="AG10" s="9">
+        <f t="shared" si="18"/>
+        <v>68022.222222222219</v>
+      </c>
+      <c r="AH10" s="9">
+        <f t="shared" si="18"/>
+        <v>81125</v>
+      </c>
+      <c r="AI10" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AR10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AS10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AT10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AU10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AV10" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AW10" s="9">
+        <f t="shared" si="19"/>
+        <v>5955.555555555562</v>
+      </c>
+      <c r="AX10" s="9">
+        <f t="shared" si="19"/>
+        <v>15500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:50" x14ac:dyDescent="0.4">
       <c r="E11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="F11" s="6">
         <v>36000</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>120000</v>
       </c>
       <c r="H11" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>120</v>
       </c>
       <c r="I11" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>4</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" si="6"/>
-        <v>32</v>
+        <f t="shared" si="24"/>
+        <v>16</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" si="7"/>
-        <v>68</v>
+        <f t="shared" si="25"/>
+        <v>65</v>
       </c>
       <c r="L11" s="6">
-        <f t="shared" si="8"/>
-        <v>164</v>
+        <f t="shared" si="26"/>
+        <v>125</v>
       </c>
       <c r="M11" s="8">
-        <f t="shared" si="9"/>
-        <v>1680</v>
-      </c>
-      <c r="N11" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O11" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P11" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q11" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R11" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="27"/>
+        <v>1650</v>
+      </c>
+      <c r="N11" s="8">
+        <f t="shared" si="28"/>
+        <v>2250</v>
+      </c>
+      <c r="O11" s="8">
+        <f t="shared" si="15"/>
+        <v>6750</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="16"/>
+        <v>675</v>
+      </c>
+      <c r="Q11" s="8">
+        <f t="shared" si="17"/>
+        <v>3375</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="29"/>
+        <v>20</v>
       </c>
       <c r="S11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="T11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="U11" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="V11" s="9">
-        <f t="shared" si="1"/>
-        <v>5888.8888888888905</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="W11" s="9">
-        <f t="shared" si="1"/>
-        <v>12450</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="X11" s="9">
-        <f t="shared" si="1"/>
-        <v>20045.454545454544</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="Y11" s="9">
-        <f t="shared" si="1"/>
-        <v>28666.666666666672</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="Z11" s="9">
-        <f t="shared" si="1"/>
-        <v>38307.692307692312</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AA11" s="9">
-        <f t="shared" si="1"/>
-        <v>48964.28571428571</v>
+        <f t="shared" si="18"/>
+        <v>4925.925925925927</v>
       </c>
       <c r="AB11" s="9">
-        <f t="shared" si="1"/>
-        <v>60633.333333333343</v>
+        <f t="shared" si="18"/>
+        <v>11400</v>
       </c>
       <c r="AC11" s="9">
-        <f t="shared" si="1"/>
-        <v>73312.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>18909.090909090904</v>
+      </c>
+      <c r="AD11" s="9">
+        <f t="shared" si="18"/>
+        <v>27444.444444444438</v>
+      </c>
+      <c r="AE11" s="9">
+        <f t="shared" si="18"/>
+        <v>37000</v>
+      </c>
+      <c r="AF11" s="9">
+        <f t="shared" si="18"/>
+        <v>47571.42857142858</v>
+      </c>
+      <c r="AG11" s="9">
+        <f t="shared" si="18"/>
+        <v>59155.555555555562</v>
+      </c>
+      <c r="AH11" s="9">
+        <f t="shared" si="18"/>
+        <v>71750</v>
+      </c>
+      <c r="AI11" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AR11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AS11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AT11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AU11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AV11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AW11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AX11" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:50" x14ac:dyDescent="0.4">
       <c r="E12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="F12" s="6">
         <v>45000</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>165000</v>
       </c>
       <c r="H12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>165</v>
       </c>
       <c r="I12" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>5.5</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="6"/>
-        <v>36</v>
+        <f t="shared" si="24"/>
+        <v>18</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="7"/>
-        <v>76</v>
+        <f t="shared" si="25"/>
+        <v>72.5</v>
       </c>
       <c r="L12" s="6">
-        <f t="shared" si="8"/>
-        <v>184</v>
+        <f t="shared" si="26"/>
+        <v>140</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" si="9"/>
-        <v>1760</v>
-      </c>
-      <c r="N12" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O12" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P12" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q12" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R12" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="27"/>
+        <v>1725</v>
+      </c>
+      <c r="N12" s="8">
+        <f t="shared" si="28"/>
+        <v>2400</v>
+      </c>
+      <c r="O12" s="8">
+        <f t="shared" si="15"/>
+        <v>7200</v>
+      </c>
+      <c r="P12" s="8">
+        <f t="shared" si="16"/>
+        <v>720</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" si="17"/>
+        <v>3600</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="29"/>
+        <v>27.5</v>
       </c>
       <c r="S12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="T12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="U12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="V12" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="W12" s="9">
-        <f t="shared" si="1"/>
-        <v>6150</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="X12" s="9">
-        <f t="shared" si="1"/>
-        <v>13227.272727272728</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="Y12" s="9">
-        <f t="shared" si="1"/>
-        <v>21333.333333333343</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="Z12" s="9">
-        <f t="shared" si="1"/>
-        <v>30461.538461538468</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AA12" s="9">
-        <f t="shared" si="1"/>
-        <v>40607.142857142855</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AB12" s="9">
-        <f t="shared" si="1"/>
-        <v>51766.666666666672</v>
+        <f t="shared" si="18"/>
+        <v>5100</v>
       </c>
       <c r="AC12" s="9">
-        <f t="shared" si="1"/>
-        <v>63937.5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>12090.909090909088</v>
+      </c>
+      <c r="AD12" s="9">
+        <f t="shared" si="18"/>
+        <v>20111.111111111109</v>
+      </c>
+      <c r="AE12" s="9">
+        <f t="shared" si="18"/>
+        <v>29153.846153846156</v>
+      </c>
+      <c r="AF12" s="9">
+        <f t="shared" si="18"/>
+        <v>39214.285714285725</v>
+      </c>
+      <c r="AG12" s="9">
+        <f t="shared" si="18"/>
+        <v>50288.888888888891</v>
+      </c>
+      <c r="AH12" s="9">
+        <f t="shared" si="18"/>
+        <v>62375</v>
+      </c>
+      <c r="AI12" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AR12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AS12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AT12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AU12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AV12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AW12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AX12" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:50" x14ac:dyDescent="0.4">
       <c r="E13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="F13" s="6">
         <v>55000</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>220000</v>
       </c>
       <c r="H13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>220</v>
       </c>
       <c r="I13" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>7.333333333333333</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="24"/>
+        <v>20</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="7"/>
-        <v>84</v>
+        <f t="shared" si="25"/>
+        <v>80</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="8"/>
-        <v>204</v>
+        <f t="shared" si="26"/>
+        <v>155</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="9"/>
-        <v>1840</v>
-      </c>
-      <c r="N13" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O13" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P13" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q13" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R13" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="27"/>
+        <v>1800</v>
+      </c>
+      <c r="N13" s="8">
+        <f t="shared" si="28"/>
+        <v>2550</v>
+      </c>
+      <c r="O13" s="8">
+        <f t="shared" si="15"/>
+        <v>7650</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="16"/>
+        <v>765</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="17"/>
+        <v>3825</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="29"/>
+        <v>36.666666666666664</v>
       </c>
       <c r="S13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="T13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="U13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="V13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="W13" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="X13" s="9">
-        <f t="shared" si="1"/>
-        <v>6409.0909090909117</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="Y13" s="9">
-        <f t="shared" si="1"/>
-        <v>14000</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="Z13" s="9">
-        <f t="shared" si="1"/>
-        <v>22615.384615384624</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AA13" s="9">
-        <f t="shared" si="1"/>
-        <v>32250</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AB13" s="9">
-        <f t="shared" si="1"/>
-        <v>42900</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AC13" s="9">
-        <f t="shared" si="1"/>
-        <v>54562.5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>5272.7272727272648</v>
+      </c>
+      <c r="AD13" s="9">
+        <f t="shared" si="18"/>
+        <v>12777.777777777781</v>
+      </c>
+      <c r="AE13" s="9">
+        <f t="shared" si="18"/>
+        <v>21307.692307692312</v>
+      </c>
+      <c r="AF13" s="9">
+        <f t="shared" si="18"/>
+        <v>30857.14285714287</v>
+      </c>
+      <c r="AG13" s="9">
+        <f t="shared" si="18"/>
+        <v>41422.222222222219</v>
+      </c>
+      <c r="AH13" s="9">
+        <f t="shared" si="18"/>
+        <v>53000</v>
+      </c>
+      <c r="AI13" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AR13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AS13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AT13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AU13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AV13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AW13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AX13" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="2:50" x14ac:dyDescent="0.4">
       <c r="E14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="F14" s="6">
         <v>66000</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>286000</v>
       </c>
       <c r="H14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>286</v>
       </c>
       <c r="I14" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>9.5333333333333332</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="6"/>
-        <v>44</v>
+        <f t="shared" si="24"/>
+        <v>22</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="7"/>
-        <v>92</v>
+        <f t="shared" si="25"/>
+        <v>87.5</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="8"/>
-        <v>224</v>
+        <f t="shared" si="26"/>
+        <v>170</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="9"/>
-        <v>1920</v>
-      </c>
-      <c r="N14" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O14" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P14" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q14" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R14" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="27"/>
+        <v>1875</v>
+      </c>
+      <c r="N14" s="8">
+        <f t="shared" si="28"/>
+        <v>2700</v>
+      </c>
+      <c r="O14" s="8">
+        <f t="shared" si="15"/>
+        <v>8100</v>
+      </c>
+      <c r="P14" s="8">
+        <f t="shared" si="16"/>
+        <v>810</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="17"/>
+        <v>4050</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="29"/>
+        <v>47.666666666666664</v>
       </c>
       <c r="S14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="T14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="U14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="V14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="W14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="X14" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="Y14" s="9">
-        <f t="shared" si="1"/>
-        <v>6666.6666666666715</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="Z14" s="9">
-        <f t="shared" si="1"/>
-        <v>14769.23076923078</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AA14" s="9">
-        <f t="shared" si="1"/>
-        <v>23892.857142857145</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AB14" s="9">
-        <f t="shared" si="1"/>
-        <v>34033.333333333343</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AC14" s="9">
-        <f t="shared" si="1"/>
-        <v>45187.5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AD14" s="9">
+        <f t="shared" si="18"/>
+        <v>5444.444444444438</v>
+      </c>
+      <c r="AE14" s="9">
+        <f t="shared" si="18"/>
+        <v>13461.538461538454</v>
+      </c>
+      <c r="AF14" s="9">
+        <f t="shared" si="18"/>
+        <v>22500</v>
+      </c>
+      <c r="AG14" s="9">
+        <f t="shared" si="18"/>
+        <v>32555.555555555562</v>
+      </c>
+      <c r="AH14" s="9">
+        <f t="shared" si="18"/>
+        <v>43625</v>
+      </c>
+      <c r="AI14" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AR14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AS14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AT14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AU14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AV14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AW14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AX14" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:50" x14ac:dyDescent="0.4">
       <c r="E15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>13</v>
       </c>
       <c r="F15" s="2">
         <v>78000</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>364000</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>364</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>12.133333333333333</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="6"/>
-        <v>48</v>
+        <f t="shared" si="24"/>
+        <v>24</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="7"/>
-        <v>100</v>
+        <f t="shared" si="25"/>
+        <v>95</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="8"/>
-        <v>244</v>
-      </c>
-      <c r="M15" s="8">
-        <f t="shared" si="9"/>
-        <v>2000</v>
-      </c>
-      <c r="N15" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O15" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P15" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q15" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R15" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="26"/>
+        <v>185</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="27"/>
+        <v>1950</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="28"/>
+        <v>2850</v>
+      </c>
+      <c r="O15" s="8">
+        <f t="shared" si="15"/>
+        <v>8550</v>
+      </c>
+      <c r="P15" s="8">
+        <f t="shared" si="16"/>
+        <v>855</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="17"/>
+        <v>4275</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="29"/>
+        <v>60.666666666666664</v>
       </c>
       <c r="S15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="T15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="U15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="V15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="W15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="X15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="Y15" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="Z15" s="9">
-        <f t="shared" si="1"/>
-        <v>6923.076923076922</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AA15" s="9">
-        <f t="shared" si="1"/>
-        <v>15535.71428571429</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AB15" s="9">
-        <f t="shared" si="1"/>
-        <v>25166.666666666672</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AC15" s="9">
-        <f t="shared" si="1"/>
-        <v>35812.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AD15" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AE15" s="9">
+        <f t="shared" si="18"/>
+        <v>5615.3846153846098</v>
+      </c>
+      <c r="AF15" s="9">
+        <f t="shared" si="18"/>
+        <v>14142.857142857145</v>
+      </c>
+      <c r="AG15" s="9">
+        <f t="shared" si="18"/>
+        <v>23688.888888888891</v>
+      </c>
+      <c r="AH15" s="9">
+        <f t="shared" si="18"/>
+        <v>34250</v>
+      </c>
+      <c r="AI15" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AR15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AS15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AT15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AU15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AV15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AW15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AX15" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:50" x14ac:dyDescent="0.4">
       <c r="E16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>14</v>
       </c>
       <c r="F16" s="2">
         <v>91000</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>455000</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>455</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>15.166666666666666</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="6"/>
-        <v>52</v>
+        <f t="shared" si="24"/>
+        <v>26</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="7"/>
-        <v>108</v>
+        <f t="shared" si="25"/>
+        <v>102.5</v>
       </c>
       <c r="L16" s="2">
-        <f t="shared" si="8"/>
-        <v>264</v>
-      </c>
-      <c r="M16" s="8">
-        <f t="shared" si="9"/>
-        <v>2080</v>
-      </c>
-      <c r="N16" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O16" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P16" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q16" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R16" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="26"/>
+        <v>200</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="27"/>
+        <v>2025</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="28"/>
+        <v>3000</v>
+      </c>
+      <c r="O16" s="8">
+        <f t="shared" si="15"/>
+        <v>9000</v>
+      </c>
+      <c r="P16" s="8">
+        <f t="shared" si="16"/>
+        <v>900</v>
+      </c>
+      <c r="Q16" s="8">
+        <f t="shared" si="17"/>
+        <v>4500</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="29"/>
+        <v>75.833333333333329</v>
       </c>
       <c r="S16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="T16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="U16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="V16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="W16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="X16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="Y16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="Z16" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="AA16" s="9">
-        <f t="shared" si="1"/>
-        <v>7178.5714285714348</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AB16" s="9">
-        <f t="shared" si="1"/>
-        <v>16300.000000000015</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AC16" s="9">
-        <f t="shared" si="1"/>
-        <v>26437.5</v>
-      </c>
-    </row>
-    <row r="17" spans="5:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AD16" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AE16" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AF16" s="9">
+        <f t="shared" si="18"/>
+        <v>5785.7142857142899</v>
+      </c>
+      <c r="AG16" s="9">
+        <f t="shared" si="18"/>
+        <v>14822.222222222234</v>
+      </c>
+      <c r="AH16" s="9">
+        <f t="shared" si="18"/>
+        <v>24875</v>
+      </c>
+      <c r="AI16" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AR16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AS16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AT16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AU16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AV16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AW16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AX16" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="17" spans="5:50" x14ac:dyDescent="0.4">
       <c r="E17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>15</v>
       </c>
       <c r="F17" s="2">
         <v>105000</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>560000</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>560</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>18.666666666666668</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="6"/>
-        <v>56</v>
+        <f t="shared" si="24"/>
+        <v>28</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="7"/>
-        <v>116</v>
+        <f t="shared" si="25"/>
+        <v>110</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="8"/>
-        <v>284</v>
-      </c>
-      <c r="M17" s="8">
-        <f t="shared" si="9"/>
-        <v>2160</v>
-      </c>
-      <c r="N17" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O17" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P17" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q17" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R17" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="26"/>
+        <v>215</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="27"/>
+        <v>2100</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="28"/>
+        <v>3150</v>
+      </c>
+      <c r="O17" s="8">
+        <f t="shared" si="15"/>
+        <v>9450</v>
+      </c>
+      <c r="P17" s="8">
+        <f t="shared" si="16"/>
+        <v>945</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" si="17"/>
+        <v>4725</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="29"/>
+        <v>93.333333333333329</v>
       </c>
       <c r="S17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="T17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="U17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="V17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="W17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="X17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="Y17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="Z17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="AA17" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="AB17" s="9">
-        <f t="shared" si="1"/>
-        <v>7433.333333333343</v>
+        <f t="shared" si="18"/>
+        <v>3000</v>
       </c>
       <c r="AC17" s="9">
-        <f t="shared" si="1"/>
-        <v>17062.5</v>
-      </c>
-    </row>
-    <row r="18" spans="5:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AD17" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AE17" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AF17" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AG17" s="9">
+        <f t="shared" si="18"/>
+        <v>5955.555555555562</v>
+      </c>
+      <c r="AH17" s="9">
+        <f t="shared" si="18"/>
+        <v>15500</v>
+      </c>
+      <c r="AI17" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AR17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AS17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AT17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AU17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AV17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AW17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AX17" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="18" spans="5:50" x14ac:dyDescent="0.4">
       <c r="E18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>16</v>
       </c>
       <c r="F18" s="2">
         <v>120000</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>680000</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>680</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>22.666666666666668</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="6"/>
-        <v>60</v>
+        <f t="shared" si="24"/>
+        <v>30</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="7"/>
-        <v>124</v>
+        <f t="shared" si="25"/>
+        <v>117.5</v>
       </c>
       <c r="L18" s="2">
-        <f t="shared" si="8"/>
-        <v>304</v>
-      </c>
-      <c r="M18" s="8">
-        <f t="shared" si="9"/>
-        <v>2240</v>
-      </c>
-      <c r="N18" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O18" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P18" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q18" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R18" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="26"/>
+        <v>230</v>
+      </c>
+      <c r="M18" s="10">
+        <f t="shared" si="27"/>
+        <v>2175</v>
+      </c>
+      <c r="N18" s="10">
+        <f t="shared" si="28"/>
+        <v>3300</v>
+      </c>
+      <c r="O18" s="8">
+        <f t="shared" si="15"/>
+        <v>9900</v>
+      </c>
+      <c r="P18" s="8">
+        <f t="shared" si="16"/>
+        <v>990</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" si="17"/>
+        <v>4950</v>
+      </c>
+      <c r="R18" s="8">
+        <f t="shared" si="29"/>
+        <v>113.33333333333333</v>
       </c>
       <c r="S18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="T18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="U18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="V18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="W18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="X18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="Y18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="Z18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="AA18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="AB18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="AC18" s="9">
-        <f t="shared" si="1"/>
-        <v>7687.5</v>
-      </c>
-    </row>
-    <row r="19" spans="5:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AD18" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AE18" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AF18" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AG18" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AH18" s="9">
+        <f t="shared" si="18"/>
+        <v>6125</v>
+      </c>
+      <c r="AI18" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AR18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AS18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AT18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AU18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AV18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AW18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AX18" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="5:50" x14ac:dyDescent="0.4">
       <c r="E19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>17</v>
       </c>
       <c r="F19" s="6">
         <v>136000</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>816000</v>
       </c>
       <c r="H19" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>816</v>
       </c>
       <c r="I19" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>27.2</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="6"/>
-        <v>64</v>
+        <f t="shared" si="24"/>
+        <v>32</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="7"/>
-        <v>132</v>
+        <f t="shared" si="25"/>
+        <v>125</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="8"/>
-        <v>324</v>
+        <f t="shared" si="26"/>
+        <v>245</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="9"/>
-        <v>2320</v>
-      </c>
-      <c r="N19" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O19" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="P19" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="Q19" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="R19" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
+        <f t="shared" si="27"/>
+        <v>2250</v>
+      </c>
+      <c r="N19" s="8">
+        <f t="shared" si="28"/>
+        <v>3450</v>
+      </c>
+      <c r="O19" s="8">
+        <f t="shared" si="15"/>
+        <v>10350</v>
+      </c>
+      <c r="P19" s="8">
+        <f t="shared" si="16"/>
+        <v>1035</v>
+      </c>
+      <c r="Q19" s="8">
+        <f t="shared" si="17"/>
+        <v>5175</v>
+      </c>
+      <c r="R19" s="8">
+        <f t="shared" si="29"/>
+        <v>136</v>
       </c>
       <c r="S19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="T19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="U19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="V19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="W19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="X19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="Y19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="Z19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="AA19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="AB19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="AC19" s="9">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="20" spans="5:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AD19" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AE19" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AF19" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AG19" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AH19" s="9">
+        <f t="shared" si="18"/>
+        <v>3000</v>
+      </c>
+      <c r="AI19" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AK19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AL19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AM19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AN19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AO19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AP19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AR19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AS19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AT19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AU19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AV19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AW19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+      <c r="AX19" s="9">
+        <f t="shared" si="19"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="20" spans="5:50" x14ac:dyDescent="0.4">
       <c r="E20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>18</v>
       </c>
       <c r="F20" s="6">
         <v>153000</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>969000</v>
       </c>
       <c r="H20" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>969</v>
       </c>
       <c r="I20" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>32.299999999999997</v>
       </c>
       <c r="J20" s="6">
-        <f t="shared" si="6"/>
-        <v>68</v>
+        <f t="shared" si="24"/>
+        <v>34</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="7"/>
-        <v>140</v>
+        <f t="shared" si="25"/>
+        <v>132.5</v>
       </c>
       <c r="L20" s="6">
-        <f t="shared" si="8"/>
-        <v>344</v>
+        <f t="shared" si="26"/>
+        <v>260</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="9"/>
-        <v>2400</v>
-      </c>
-      <c r="N20" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="O20" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="P20" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="Q20" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-      <c r="R20" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
+        <f t="shared" si="27"/>
+        <v>2325</v>
+      </c>
+      <c r="N20" s="8">
+        <f t="shared" si="28"/>
+        <v>3600</v>
+      </c>
+      <c r="O20" s="8">
+        <f t="shared" si="15"/>
+        <v>10800</v>
+      </c>
+      <c r="P20" s="8">
+        <f t="shared" si="16"/>
+        <v>1080</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" si="17"/>
+        <v>5400</v>
+      </c>
+      <c r="R20" s="8">
+        <f t="shared" si="29"/>
+        <v>161.5</v>
       </c>
       <c r="S20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="T20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="U20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="V20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="W20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="X20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="Y20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="Z20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="AA20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="AB20" s="9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="30"/>
         <v>3000</v>
       </c>
       <c r="AC20" s="9">
-        <f t="shared" si="10"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="21" spans="5:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="30"/>
+        <v>3000</v>
+      </c>
+      <c r="AD20" s="9">
+        <f t="shared" si="30"/>
+        <v>3000</v>
+      </c>
+      <c r="AE20" s="9">
+        <f t="shared" si="30"/>
+        <v>3000</v>
+      </c>
+      <c r="AF20" s="9">
+        <f t="shared" si="30"/>
+        <v>3000</v>
+      </c>
+      <c r="AG20" s="9">
+        <f t="shared" si="30"/>
+        <v>3000</v>
+      </c>
+      <c r="AH20" s="9">
+        <f t="shared" si="30"/>
+        <v>3000</v>
+      </c>
+      <c r="AI20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AK20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AL20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AM20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AN20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AO20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AP20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AR20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AS20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AT20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AU20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AV20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AW20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+      <c r="AX20" s="9">
+        <f t="shared" si="31"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="21" spans="5:50" x14ac:dyDescent="0.4">
       <c r="E21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>19</v>
       </c>
       <c r="F21" s="6">
         <v>171000</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>1140000</v>
       </c>
       <c r="H21" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1140</v>
       </c>
       <c r="I21" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>38</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" si="6"/>
-        <v>72</v>
+        <f t="shared" si="24"/>
+        <v>36</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="7"/>
-        <v>148</v>
+        <f t="shared" si="25"/>
+        <v>140</v>
       </c>
       <c r="L21" s="6">
-        <f t="shared" si="8"/>
-        <v>364</v>
+        <f t="shared" si="26"/>
+        <v>275</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="9"/>
-        <v>2480</v>
-      </c>
-      <c r="N21" s="9">
-        <f t="shared" ref="N21:AC22" si="11">MAX(N$3-(N$3-3000)/(8*N$2)*$K21,3000)</f>
-        <v>3000</v>
-      </c>
-      <c r="O21" s="9">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="P21" s="9">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="Q21" s="9">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="R21" s="9">
-        <f t="shared" si="11"/>
-        <v>3000</v>
+        <f t="shared" si="27"/>
+        <v>2400</v>
+      </c>
+      <c r="N21" s="8">
+        <f t="shared" si="28"/>
+        <v>3750</v>
+      </c>
+      <c r="O21" s="8">
+        <f t="shared" si="15"/>
+        <v>11250</v>
+      </c>
+      <c r="P21" s="8">
+        <f t="shared" si="16"/>
+        <v>1125</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="17"/>
+        <v>5625</v>
+      </c>
+      <c r="R21" s="8">
+        <f t="shared" si="29"/>
+        <v>190</v>
       </c>
       <c r="S21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="S21:AH22" si="32">MAX(S$3-(S$3-3000)/($C$6*S$2)*$K21,3000)</f>
         <v>3000</v>
       </c>
       <c r="T21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="U21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="V21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="W21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="X21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="Y21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="Z21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="AA21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="AB21" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="AC21" s="9">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="22" spans="5:29" x14ac:dyDescent="0.4">
+        <f t="shared" si="32"/>
+        <v>3000</v>
+      </c>
+      <c r="AD21" s="9">
+        <f t="shared" si="32"/>
+        <v>3000</v>
+      </c>
+      <c r="AE21" s="9">
+        <f t="shared" si="32"/>
+        <v>3000</v>
+      </c>
+      <c r="AF21" s="9">
+        <f t="shared" si="32"/>
+        <v>3000</v>
+      </c>
+      <c r="AG21" s="9">
+        <f t="shared" si="32"/>
+        <v>3000</v>
+      </c>
+      <c r="AH21" s="9">
+        <f t="shared" si="32"/>
+        <v>3000</v>
+      </c>
+      <c r="AI21" s="9">
+        <f t="shared" ref="AI21:AX22" si="33">MAX(AI$3-(AI$3-3000)/($C$6*AI$2)*$L21,3000)</f>
+        <v>3000</v>
+      </c>
+      <c r="AJ21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AK21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AL21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AM21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AN21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AO21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AP21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AR21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AS21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AT21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AU21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AV21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AW21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AX21" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="5:50" x14ac:dyDescent="0.4">
       <c r="E22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="20"/>
         <v>20</v>
       </c>
       <c r="F22" s="6">
         <v>190000</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="21"/>
         <v>1330000</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1330</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>44.333333333333336</v>
       </c>
       <c r="J22" s="6">
-        <f t="shared" si="6"/>
-        <v>76</v>
+        <f t="shared" si="24"/>
+        <v>38</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="7"/>
-        <v>156</v>
+        <f t="shared" si="25"/>
+        <v>147.5</v>
       </c>
       <c r="L22" s="6">
-        <f t="shared" si="8"/>
-        <v>384</v>
+        <f t="shared" si="26"/>
+        <v>290</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="9"/>
-        <v>2560</v>
-      </c>
-      <c r="N22" s="9">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="O22" s="9">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="P22" s="9">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="Q22" s="9">
-        <f t="shared" si="11"/>
-        <v>3000</v>
-      </c>
-      <c r="R22" s="9">
-        <f t="shared" si="11"/>
-        <v>3000</v>
+        <f t="shared" si="27"/>
+        <v>2475</v>
+      </c>
+      <c r="N22" s="8">
+        <f t="shared" si="28"/>
+        <v>3900</v>
+      </c>
+      <c r="O22" s="8">
+        <f t="shared" si="15"/>
+        <v>11700</v>
+      </c>
+      <c r="P22" s="8">
+        <f t="shared" si="16"/>
+        <v>1170</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="17"/>
+        <v>5850</v>
+      </c>
+      <c r="R22" s="8">
+        <f t="shared" si="29"/>
+        <v>221.66666666666666</v>
       </c>
       <c r="S22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="T22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="U22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="W22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="X22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="Z22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="AA22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="AB22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
         <v>3000</v>
       </c>
       <c r="AC22" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="32"/>
+        <v>3000</v>
+      </c>
+      <c r="AD22" s="9">
+        <f t="shared" si="32"/>
+        <v>3000</v>
+      </c>
+      <c r="AE22" s="9">
+        <f t="shared" si="32"/>
+        <v>3000</v>
+      </c>
+      <c r="AF22" s="9">
+        <f t="shared" si="32"/>
+        <v>3000</v>
+      </c>
+      <c r="AG22" s="9">
+        <f t="shared" si="32"/>
+        <v>3000</v>
+      </c>
+      <c r="AH22" s="9">
+        <f t="shared" si="32"/>
+        <v>3000</v>
+      </c>
+      <c r="AI22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AJ22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AK22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AL22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AM22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AN22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AO22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AP22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AQ22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AR22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AS22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AT22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AU22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AV22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AW22" s="9">
+        <f t="shared" si="33"/>
+        <v>3000</v>
+      </c>
+      <c r="AX22" s="9">
+        <f t="shared" si="33"/>
         <v>3000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="N4:AC22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="S4:AH22">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>3000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI4:AX22">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>3000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2834,7 +4623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3702,7 +5491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3825,7 +5614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
